--- a/tests/VN8413_Data.xlsx
+++ b/tests/VN8413_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/723e82af93afbbb8/Dev Area/PyPackages/packaging_dpkits/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7580FB57-E33F-4291-AE49-1D26396487B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{7580FB57-E33F-4291-AE49-1D26396487B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DF10CDE-CD9E-4F04-853E-E19A49418EE8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$7:$DZ$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$7:$EF$157</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Question!$A$1:$U$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="1626">
   <si>
     <t>Name of items</t>
   </si>
@@ -4851,6 +4851,78 @@
   </si>
   <si>
     <t>Ấn tượng với bia âm độ có hương trái cây, sẽ thơm hơn bia thường</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_01_Rank_1</t>
+  </si>
+  <si>
+    <t>RANKING</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_01. Based on your own thought and feeling, please let us know which dealer fits each of the following statement?
+"Best price"
+Please select and rank 5 of the following in order of suitability from 1 to 5 where 1 is most suitable and 2 is 2nd most suitable
+Please keep dealers to move, put the 1st dealer on top, below are the 2nd, 3rd, 4th, 5th, 6th</t>
+  </si>
+  <si>
+    <t>Nguyen Kim</t>
+  </si>
+  <si>
+    <t>Dien May Xanh</t>
+  </si>
+  <si>
+    <t>Dien May Cho Lon</t>
+  </si>
+  <si>
+    <t>Others, please clarify 1</t>
+  </si>
+  <si>
+    <t>Others, please clarify 2</t>
+  </si>
+  <si>
+    <t>Others, please clarify 3</t>
+  </si>
+  <si>
+    <t>None of above</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_01_Rank_2</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_01_Rank_3</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_02_Rank_1</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_02. Based on your own thought and feeling, please let us know which dealer fits each of the following statement?
+"Attractive promotions and many activities at store (wheel of fortune, lucky draw, etc.)"
+Please select and rank 5 of the following in order of suitability from 1 to 5 where 1 is most suitable and 2 is 2nd most suitable
+Please keep dealers to move, put the 1st dealer on top, below are the 2nd, 3rd, 4th, 5th, 6th</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_02_Rank_2</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_02_Rank_3</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_01_Rank1</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_01_Rank2</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_01_Rank3</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_02_Rank1</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_02_Rank2</t>
+  </si>
+  <si>
+    <t>Dealer_HCM_02_Rank3</t>
   </si>
 </sst>
 </file>
@@ -4908,7 +4980,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4951,6 +5023,18 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4964,7 +5048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5005,6 +5089,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5021,7 +5115,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5342,13 +5446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6358,7 +6462,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -6378,7 +6482,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -6389,7 +6493,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>540</v>
       </c>
@@ -6409,7 +6513,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>549</v>
       </c>
@@ -6426,7 +6530,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>550</v>
       </c>
@@ -6443,7 +6547,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>551</v>
       </c>
@@ -6460,7 +6564,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>552</v>
       </c>
@@ -6471,7 +6575,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>553</v>
       </c>
@@ -6482,7 +6586,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>554</v>
       </c>
@@ -6491,13 +6595,211 @@
       </c>
       <c r="D57" s="14" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K58" s="24" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K59" s="24" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K60" s="24" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="27" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>1613</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:U57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6506,11 +6808,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DZ157"/>
+  <dimension ref="A1:EF157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DQ1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="EF8" sqref="EF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6587,9 +6889,10 @@
     <col min="115" max="117" width="10" customWidth="1"/>
     <col min="118" max="118" width="25.7109375" customWidth="1"/>
     <col min="119" max="119" width="10" customWidth="1"/>
+    <col min="131" max="136" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:136" x14ac:dyDescent="0.25">
       <c r="DT1" s="15" t="s">
         <v>541</v>
       </c>
@@ -6612,612 +6915,636 @@
         <v>541</v>
       </c>
     </row>
-    <row r="2" spans="1:130" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:136" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
-      <c r="BW4" s="26" t="s">
+    <row r="4" spans="1:136" x14ac:dyDescent="0.25">
+      <c r="BW4" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="BX4" s="26"/>
-      <c r="BY4" s="26"/>
-      <c r="BZ4" s="26"/>
-      <c r="CA4" s="26"/>
-      <c r="CB4" s="26"/>
-      <c r="CC4" s="26"/>
-      <c r="CD4" s="26"/>
-      <c r="CE4" s="26"/>
-      <c r="CF4" s="26"/>
-      <c r="CG4" s="26"/>
-      <c r="CH4" s="26"/>
-      <c r="CI4" s="26"/>
-      <c r="CJ4" s="26"/>
-      <c r="CK4" s="26" t="s">
+      <c r="BX4" s="32"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="CL4" s="26"/>
-      <c r="CM4" s="26"/>
-      <c r="CN4" s="26"/>
-      <c r="CO4" s="26"/>
-      <c r="CP4" s="26"/>
-      <c r="CQ4" s="26"/>
-      <c r="CR4" s="26"/>
-      <c r="CS4" s="26"/>
-      <c r="CT4" s="26"/>
-      <c r="CU4" s="26"/>
-      <c r="CV4" s="26"/>
-      <c r="CW4" s="26"/>
-      <c r="CX4" s="26"/>
-      <c r="CY4" s="26" t="s">
+      <c r="CL4" s="32"/>
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="CZ4" s="26"/>
-      <c r="DA4" s="26"/>
-      <c r="DB4" s="26"/>
-      <c r="DC4" s="26"/>
-      <c r="DD4" s="26"/>
-      <c r="DE4" s="26"/>
-      <c r="DF4" s="26"/>
-      <c r="DG4" s="26"/>
-      <c r="DH4" s="26"/>
-      <c r="DI4" s="26"/>
-      <c r="DJ4" s="26"/>
-      <c r="DK4" s="26"/>
-      <c r="DL4" s="26"/>
+      <c r="CZ4" s="32"/>
+      <c r="DA4" s="32"/>
+      <c r="DB4" s="32"/>
+      <c r="DC4" s="32"/>
+      <c r="DD4" s="32"/>
+      <c r="DE4" s="32"/>
+      <c r="DF4" s="32"/>
+      <c r="DG4" s="32"/>
+      <c r="DH4" s="32"/>
+      <c r="DI4" s="32"/>
+      <c r="DJ4" s="32"/>
+      <c r="DK4" s="32"/>
+      <c r="DL4" s="32"/>
     </row>
-    <row r="5" spans="1:130" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="V5" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="X5" s="24" t="s">
+      <c r="X5" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" s="24" t="s">
+      <c r="Y5" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="Z5" s="24" t="s">
+      <c r="Z5" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="AA5" s="24" t="s">
+      <c r="AA5" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="AB5" s="24" t="s">
+      <c r="AB5" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="AC5" s="24" t="s">
+      <c r="AC5" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AD5" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="AE5" s="24" t="s">
+      <c r="AE5" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="AF5" s="24" t="s">
+      <c r="AF5" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="AG5" s="24" t="s">
+      <c r="AG5" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="AH5" s="24" t="s">
+      <c r="AH5" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="AI5" s="24" t="s">
+      <c r="AI5" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="AJ5" s="24" t="s">
+      <c r="AJ5" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="AK5" s="24" t="s">
+      <c r="AK5" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="AL5" s="24" t="s">
+      <c r="AL5" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="AM5" s="24" t="s">
+      <c r="AM5" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="AN5" s="24" t="s">
+      <c r="AN5" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="AO5" s="24" t="s">
+      <c r="AO5" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="AP5" s="24" t="s">
+      <c r="AP5" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="AQ5" s="24" t="s">
+      <c r="AQ5" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="AR5" s="24" t="s">
+      <c r="AR5" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="AS5" s="24" t="s">
+      <c r="AS5" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="AT5" s="24" t="s">
+      <c r="AT5" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="AU5" s="24" t="s">
+      <c r="AU5" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="AV5" s="24" t="s">
+      <c r="AV5" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="AW5" s="24" t="s">
+      <c r="AW5" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="AX5" s="24" t="s">
+      <c r="AX5" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="AY5" s="24" t="s">
+      <c r="AY5" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="AZ5" s="24" t="s">
+      <c r="AZ5" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="BA5" s="24" t="s">
+      <c r="BA5" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="BB5" s="24" t="s">
+      <c r="BB5" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="BC5" s="24" t="s">
+      <c r="BC5" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="BD5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24" t="s">
+      <c r="BD5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE5" s="30"/>
+      <c r="BF5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24" t="s">
+      <c r="BG5" s="30"/>
+      <c r="BH5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BI5" s="24" t="s">
+      <c r="BI5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BJ5" s="24" t="s">
+      <c r="BJ5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="BK5" s="24" t="s">
+      <c r="BK5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="BL5" s="24" t="s">
+      <c r="BL5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BM5" s="24" t="s">
+      <c r="BM5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BN5" s="24" t="s">
+      <c r="BN5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="BO5" s="24" t="s">
+      <c r="BO5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BP5" s="24" t="s">
+      <c r="BP5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="BQ5" s="24" t="s">
+      <c r="BQ5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="BR5" s="24" t="s">
+      <c r="BR5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="BS5" s="24" t="s">
+      <c r="BS5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="BT5" s="24" t="s">
+      <c r="BT5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BU5" s="24" t="s">
+      <c r="BU5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="BV5" s="24" t="s">
+      <c r="BV5" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="BW5" s="24" t="s">
+      <c r="BW5" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="BX5" s="24" t="s">
+      <c r="BX5" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="BY5" s="24"/>
-      <c r="BZ5" s="24" t="s">
+      <c r="BY5" s="30"/>
+      <c r="BZ5" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="CA5" s="24"/>
-      <c r="CB5" s="24" t="s">
+      <c r="CA5" s="30"/>
+      <c r="CB5" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="CC5" s="24" t="s">
+      <c r="CC5" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="CD5" s="24" t="s">
+      <c r="CD5" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="CE5" s="24" t="s">
+      <c r="CE5" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="CF5" s="24" t="s">
+      <c r="CF5" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="CG5" s="24"/>
-      <c r="CH5" s="24" t="s">
+      <c r="CG5" s="30"/>
+      <c r="CH5" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="CI5" s="24"/>
-      <c r="CJ5" s="24" t="s">
+      <c r="CI5" s="30"/>
+      <c r="CJ5" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="CK5" s="24" t="s">
+      <c r="CK5" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="CL5" s="25" t="s">
+      <c r="CL5" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="CM5" s="25"/>
-      <c r="CN5" s="24" t="s">
+      <c r="CM5" s="31"/>
+      <c r="CN5" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="CO5" s="24"/>
-      <c r="CP5" s="24" t="s">
+      <c r="CO5" s="30"/>
+      <c r="CP5" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="CQ5" s="24" t="s">
+      <c r="CQ5" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="CR5" s="24" t="s">
+      <c r="CR5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="CS5" s="24" t="s">
+      <c r="CS5" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="CT5" s="24" t="s">
+      <c r="CT5" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="CU5" s="24"/>
-      <c r="CV5" s="25" t="s">
+      <c r="CU5" s="30"/>
+      <c r="CV5" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="CW5" s="25"/>
-      <c r="CX5" s="24" t="s">
+      <c r="CW5" s="31"/>
+      <c r="CX5" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="CY5" s="24" t="s">
+      <c r="CY5" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="CZ5" s="24" t="s">
+      <c r="CZ5" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="DA5" s="24"/>
-      <c r="DB5" s="25" t="s">
+      <c r="DA5" s="30"/>
+      <c r="DB5" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="DC5" s="25"/>
-      <c r="DD5" s="24" t="s">
+      <c r="DC5" s="31"/>
+      <c r="DD5" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="DE5" s="24" t="s">
+      <c r="DE5" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="DF5" s="24" t="s">
+      <c r="DF5" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="DG5" s="24" t="s">
+      <c r="DG5" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="DH5" s="24" t="s">
+      <c r="DH5" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="DI5" s="24"/>
-      <c r="DJ5" s="25" t="s">
+      <c r="DI5" s="30"/>
+      <c r="DJ5" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="DK5" s="25"/>
-      <c r="DL5" s="24" t="s">
+      <c r="DK5" s="31"/>
+      <c r="DL5" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="DM5" s="24" t="s">
+      <c r="DM5" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="DN5" s="25" t="s">
+      <c r="DN5" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="DO5" s="25"/>
-      <c r="DP5" s="24" t="s">
+      <c r="DO5" s="31"/>
+      <c r="DP5" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="DQ5" s="24" t="s">
+      <c r="DQ5" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="DR5" s="24"/>
-      <c r="DS5" s="24"/>
-      <c r="DT5" s="25" t="s">
+      <c r="DR5" s="30"/>
+      <c r="DS5" s="30"/>
+      <c r="DT5" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="DU5" s="27" t="s">
+      <c r="DU5" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="DV5" s="27" t="s">
+      <c r="DV5" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="DW5" s="27" t="s">
+      <c r="DW5" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="DX5" s="27" t="s">
+      <c r="DX5" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="DY5" s="27" t="s">
+      <c r="DY5" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="DZ5" s="27" t="s">
+      <c r="DZ5" s="33" t="s">
         <v>554</v>
       </c>
+      <c r="EA5" s="29" t="s">
+        <v>1620</v>
+      </c>
+      <c r="EB5" s="29" t="s">
+        <v>1621</v>
+      </c>
+      <c r="EC5" s="29" t="s">
+        <v>1622</v>
+      </c>
+      <c r="ED5" s="28" t="s">
+        <v>1623</v>
+      </c>
+      <c r="EE5" s="28" t="s">
+        <v>1624</v>
+      </c>
+      <c r="EF5" s="28" t="s">
+        <v>1625</v>
+      </c>
     </row>
-    <row r="6" spans="1:130" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="24"/>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="24"/>
-      <c r="AW6" s="24"/>
-      <c r="AX6" s="24"/>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="24"/>
-      <c r="BB6" s="24"/>
-      <c r="BC6" s="24"/>
-      <c r="BD6" s="24"/>
-      <c r="BE6" s="24"/>
-      <c r="BF6" s="24"/>
-      <c r="BG6" s="24"/>
-      <c r="BH6" s="24"/>
-      <c r="BI6" s="24"/>
-      <c r="BJ6" s="24"/>
-      <c r="BK6" s="24"/>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="24"/>
-      <c r="BN6" s="24"/>
-      <c r="BO6" s="24"/>
-      <c r="BP6" s="24"/>
-      <c r="BQ6" s="24"/>
-      <c r="BR6" s="24"/>
-      <c r="BS6" s="24"/>
-      <c r="BT6" s="24"/>
-      <c r="BU6" s="24"/>
-      <c r="BV6" s="24"/>
-      <c r="BW6" s="24"/>
-      <c r="BX6" s="24"/>
-      <c r="BY6" s="24"/>
-      <c r="BZ6" s="24"/>
-      <c r="CA6" s="24"/>
-      <c r="CB6" s="24"/>
-      <c r="CC6" s="24"/>
-      <c r="CD6" s="24"/>
-      <c r="CE6" s="24"/>
-      <c r="CF6" s="24"/>
-      <c r="CG6" s="24"/>
-      <c r="CH6" s="24"/>
-      <c r="CI6" s="24"/>
-      <c r="CJ6" s="24"/>
-      <c r="CK6" s="24"/>
-      <c r="CL6" s="25"/>
-      <c r="CM6" s="25"/>
-      <c r="CN6" s="24"/>
-      <c r="CO6" s="24"/>
-      <c r="CP6" s="24"/>
-      <c r="CQ6" s="24"/>
-      <c r="CR6" s="24"/>
-      <c r="CS6" s="24"/>
-      <c r="CT6" s="24"/>
-      <c r="CU6" s="24"/>
-      <c r="CV6" s="25"/>
-      <c r="CW6" s="25"/>
-      <c r="CX6" s="24"/>
-      <c r="CY6" s="24"/>
-      <c r="CZ6" s="24"/>
-      <c r="DA6" s="24"/>
-      <c r="DB6" s="25"/>
-      <c r="DC6" s="25"/>
-      <c r="DD6" s="24"/>
-      <c r="DE6" s="24"/>
-      <c r="DF6" s="24"/>
-      <c r="DG6" s="24"/>
-      <c r="DH6" s="24"/>
-      <c r="DI6" s="24"/>
-      <c r="DJ6" s="25"/>
-      <c r="DK6" s="25"/>
-      <c r="DL6" s="24"/>
-      <c r="DM6" s="24"/>
-      <c r="DN6" s="25"/>
-      <c r="DO6" s="25"/>
-      <c r="DP6" s="24"/>
-      <c r="DQ6" s="24"/>
-      <c r="DR6" s="24"/>
-      <c r="DS6" s="24"/>
-      <c r="DT6" s="25"/>
-      <c r="DU6" s="25"/>
-      <c r="DV6" s="25"/>
-      <c r="DW6" s="25"/>
-      <c r="DX6" s="25"/>
-      <c r="DY6" s="25"/>
-      <c r="DZ6" s="25"/>
+    <row r="6" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="AZ6" s="30"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="30"/>
+      <c r="BC6" s="30"/>
+      <c r="BD6" s="30"/>
+      <c r="BE6" s="30"/>
+      <c r="BF6" s="30"/>
+      <c r="BG6" s="30"/>
+      <c r="BH6" s="30"/>
+      <c r="BI6" s="30"/>
+      <c r="BJ6" s="30"/>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="30"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="30"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="30"/>
+      <c r="BT6" s="30"/>
+      <c r="BU6" s="30"/>
+      <c r="BV6" s="30"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
+      <c r="BY6" s="30"/>
+      <c r="BZ6" s="30"/>
+      <c r="CA6" s="30"/>
+      <c r="CB6" s="30"/>
+      <c r="CC6" s="30"/>
+      <c r="CD6" s="30"/>
+      <c r="CE6" s="30"/>
+      <c r="CF6" s="30"/>
+      <c r="CG6" s="30"/>
+      <c r="CH6" s="30"/>
+      <c r="CI6" s="30"/>
+      <c r="CJ6" s="30"/>
+      <c r="CK6" s="30"/>
+      <c r="CL6" s="31"/>
+      <c r="CM6" s="31"/>
+      <c r="CN6" s="30"/>
+      <c r="CO6" s="30"/>
+      <c r="CP6" s="30"/>
+      <c r="CQ6" s="30"/>
+      <c r="CR6" s="30"/>
+      <c r="CS6" s="30"/>
+      <c r="CT6" s="30"/>
+      <c r="CU6" s="30"/>
+      <c r="CV6" s="31"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="30"/>
+      <c r="CY6" s="30"/>
+      <c r="CZ6" s="30"/>
+      <c r="DA6" s="30"/>
+      <c r="DB6" s="31"/>
+      <c r="DC6" s="31"/>
+      <c r="DD6" s="30"/>
+      <c r="DE6" s="30"/>
+      <c r="DF6" s="30"/>
+      <c r="DG6" s="30"/>
+      <c r="DH6" s="30"/>
+      <c r="DI6" s="30"/>
+      <c r="DJ6" s="31"/>
+      <c r="DK6" s="31"/>
+      <c r="DL6" s="30"/>
+      <c r="DM6" s="30"/>
+      <c r="DN6" s="31"/>
+      <c r="DO6" s="31"/>
+      <c r="DP6" s="30"/>
+      <c r="DQ6" s="30"/>
+      <c r="DR6" s="30"/>
+      <c r="DS6" s="30"/>
+      <c r="DT6" s="31"/>
+      <c r="DU6" s="31"/>
+      <c r="DV6" s="31"/>
+      <c r="DW6" s="31"/>
+      <c r="DX6" s="31"/>
+      <c r="DY6" s="31"/>
+      <c r="DZ6" s="31"/>
+      <c r="EA6" s="29"/>
+      <c r="EB6" s="29"/>
+      <c r="EC6" s="29"/>
+      <c r="ED6" s="28"/>
+      <c r="EE6" s="28"/>
+      <c r="EF6" s="28"/>
     </row>
-    <row r="7" spans="1:130" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="24"/>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="24"/>
-      <c r="AV7" s="24"/>
-      <c r="AW7" s="24"/>
-      <c r="AX7" s="24"/>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="24"/>
-      <c r="BC7" s="24"/>
+    <row r="7" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="30"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="30"/>
       <c r="BD7" s="11" t="s">
         <v>220</v>
       </c>
@@ -7230,22 +7557,22 @@
       <c r="BG7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="24"/>
-      <c r="BJ7" s="24"/>
-      <c r="BK7" s="24"/>
-      <c r="BL7" s="24"/>
-      <c r="BM7" s="24"/>
-      <c r="BN7" s="24"/>
-      <c r="BO7" s="24"/>
-      <c r="BP7" s="24"/>
-      <c r="BQ7" s="24"/>
-      <c r="BR7" s="24"/>
-      <c r="BS7" s="24"/>
-      <c r="BT7" s="24"/>
-      <c r="BU7" s="24"/>
-      <c r="BV7" s="24"/>
-      <c r="BW7" s="24"/>
+      <c r="BH7" s="30"/>
+      <c r="BI7" s="30"/>
+      <c r="BJ7" s="30"/>
+      <c r="BK7" s="30"/>
+      <c r="BL7" s="30"/>
+      <c r="BM7" s="30"/>
+      <c r="BN7" s="30"/>
+      <c r="BO7" s="30"/>
+      <c r="BP7" s="30"/>
+      <c r="BQ7" s="30"/>
+      <c r="BR7" s="30"/>
+      <c r="BS7" s="30"/>
+      <c r="BT7" s="30"/>
+      <c r="BU7" s="30"/>
+      <c r="BV7" s="30"/>
+      <c r="BW7" s="30"/>
       <c r="BX7" s="11" t="s">
         <v>220</v>
       </c>
@@ -7258,10 +7585,10 @@
       <c r="CA7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="CB7" s="24"/>
-      <c r="CC7" s="24"/>
-      <c r="CD7" s="24"/>
-      <c r="CE7" s="24"/>
+      <c r="CB7" s="30"/>
+      <c r="CC7" s="30"/>
+      <c r="CD7" s="30"/>
+      <c r="CE7" s="30"/>
       <c r="CF7" s="11" t="s">
         <v>220</v>
       </c>
@@ -7274,8 +7601,8 @@
       <c r="CI7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="CJ7" s="24"/>
-      <c r="CK7" s="24"/>
+      <c r="CJ7" s="30"/>
+      <c r="CK7" s="30"/>
       <c r="CL7" s="11" t="s">
         <v>220</v>
       </c>
@@ -7288,10 +7615,10 @@
       <c r="CO7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="CP7" s="24"/>
-      <c r="CQ7" s="24"/>
-      <c r="CR7" s="24"/>
-      <c r="CS7" s="24"/>
+      <c r="CP7" s="30"/>
+      <c r="CQ7" s="30"/>
+      <c r="CR7" s="30"/>
+      <c r="CS7" s="30"/>
       <c r="CT7" s="11" t="s">
         <v>220</v>
       </c>
@@ -7304,8 +7631,8 @@
       <c r="CW7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="CX7" s="24"/>
-      <c r="CY7" s="24"/>
+      <c r="CX7" s="30"/>
+      <c r="CY7" s="30"/>
       <c r="CZ7" s="11" t="s">
         <v>220</v>
       </c>
@@ -7318,10 +7645,10 @@
       <c r="DC7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="DD7" s="24"/>
-      <c r="DE7" s="24"/>
-      <c r="DF7" s="24"/>
-      <c r="DG7" s="24"/>
+      <c r="DD7" s="30"/>
+      <c r="DE7" s="30"/>
+      <c r="DF7" s="30"/>
+      <c r="DG7" s="30"/>
       <c r="DH7" s="11" t="s">
         <v>220</v>
       </c>
@@ -7334,8 +7661,8 @@
       <c r="DK7" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="DL7" s="24"/>
-      <c r="DM7" s="24"/>
+      <c r="DL7" s="30"/>
+      <c r="DM7" s="30"/>
       <c r="DN7" s="11" t="s">
         <v>220</v>
       </c>
@@ -7354,15 +7681,21 @@
       <c r="DS7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="DT7" s="25"/>
-      <c r="DU7" s="25"/>
-      <c r="DV7" s="25"/>
-      <c r="DW7" s="25"/>
-      <c r="DX7" s="25"/>
-      <c r="DY7" s="25"/>
-      <c r="DZ7" s="25"/>
+      <c r="DT7" s="31"/>
+      <c r="DU7" s="31"/>
+      <c r="DV7" s="31"/>
+      <c r="DW7" s="31"/>
+      <c r="DX7" s="31"/>
+      <c r="DY7" s="31"/>
+      <c r="DZ7" s="31"/>
+      <c r="EA7" s="29"/>
+      <c r="EB7" s="29"/>
+      <c r="EC7" s="29"/>
+      <c r="ED7" s="28"/>
+      <c r="EE7" s="28"/>
+      <c r="EF7" s="28"/>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7602,8 +7935,26 @@
         <f t="shared" ref="DZ8" si="6">IF(DT8=3,DN8,"")</f>
         <v/>
       </c>
+      <c r="EA8">
+        <v>5</v>
+      </c>
+      <c r="EB8">
+        <v>4</v>
+      </c>
+      <c r="EC8">
+        <v>3</v>
+      </c>
+      <c r="ED8">
+        <v>5</v>
+      </c>
+      <c r="EE8">
+        <v>4</v>
+      </c>
+      <c r="EF8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7847,8 +8198,26 @@
         <f t="shared" ref="DZ9:DZ72" si="13">IF(DT9=3,DN9,"")</f>
         <v/>
       </c>
+      <c r="EA9">
+        <v>7</v>
+      </c>
+      <c r="EB9">
+        <v>1</v>
+      </c>
+      <c r="EC9">
+        <v>6</v>
+      </c>
+      <c r="ED9">
+        <v>7</v>
+      </c>
+      <c r="EE9">
+        <v>1</v>
+      </c>
+      <c r="EF9">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8092,8 +8461,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Có hương trái cây tươi mát gấp đôi hương vị và mùi thơm cho bia đậm vị.  </v>
       </c>
+      <c r="EA10">
+        <v>2</v>
+      </c>
+      <c r="EB10">
+        <v>5</v>
+      </c>
+      <c r="EC10">
+        <v>7</v>
+      </c>
+      <c r="ED10">
+        <v>2</v>
+      </c>
+      <c r="EE10">
+        <v>5</v>
+      </c>
+      <c r="EF10">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8333,8 +8720,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA11">
+        <v>4</v>
+      </c>
+      <c r="EB11">
+        <v>2</v>
+      </c>
+      <c r="EC11">
+        <v>1</v>
+      </c>
+      <c r="ED11">
+        <v>4</v>
+      </c>
+      <c r="EE11">
+        <v>2</v>
+      </c>
+      <c r="EF11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8576,8 +8981,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA12">
+        <v>1</v>
+      </c>
+      <c r="EB12">
+        <v>5</v>
+      </c>
+      <c r="EC12">
+        <v>2</v>
+      </c>
+      <c r="ED12">
+        <v>1</v>
+      </c>
+      <c r="EE12">
+        <v>5</v>
+      </c>
+      <c r="EF12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8813,8 +9236,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">vì ý tưởng dùng công nghệ âm độ giữ tinh chất hoa bia làm cho bia có hương vị trái cây nên chắc bia sẽ uống ngon hơn </v>
       </c>
+      <c r="EA13">
+        <v>4</v>
+      </c>
+      <c r="EB13">
+        <v>3</v>
+      </c>
+      <c r="EC13">
+        <v>5</v>
+      </c>
+      <c r="ED13">
+        <v>4</v>
+      </c>
+      <c r="EE13">
+        <v>3</v>
+      </c>
+      <c r="EF13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -9054,8 +9495,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Y tương này cho tôi cam giác vị bia sẽ cự đỉnh. </v>
       </c>
+      <c r="EA14">
+        <v>1</v>
+      </c>
+      <c r="EB14">
+        <v>4</v>
+      </c>
+      <c r="EC14">
+        <v>2</v>
+      </c>
+      <c r="ED14">
+        <v>1</v>
+      </c>
+      <c r="EE14">
+        <v>4</v>
+      </c>
+      <c r="EF14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -9297,8 +9756,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA15">
+        <v>7</v>
+      </c>
+      <c r="EB15">
+        <v>6</v>
+      </c>
+      <c r="EC15">
+        <v>4</v>
+      </c>
+      <c r="ED15">
+        <v>7</v>
+      </c>
+      <c r="EE15">
+        <v>6</v>
+      </c>
+      <c r="EF15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -9542,8 +10019,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA16">
+        <v>1</v>
+      </c>
+      <c r="EB16">
+        <v>4</v>
+      </c>
+      <c r="EC16">
+        <v>3</v>
+      </c>
+      <c r="ED16">
+        <v>1</v>
+      </c>
+      <c r="EE16">
+        <v>4</v>
+      </c>
+      <c r="EF16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9781,8 +10276,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA17">
+        <v>6</v>
+      </c>
+      <c r="EB17">
+        <v>7</v>
+      </c>
+      <c r="EC17">
+        <v>3</v>
+      </c>
+      <c r="ED17">
+        <v>6</v>
+      </c>
+      <c r="EE17">
+        <v>7</v>
+      </c>
+      <c r="EF17">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10018,8 +10531,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA18">
+        <v>4</v>
+      </c>
+      <c r="EB18">
+        <v>2</v>
+      </c>
+      <c r="EC18">
+        <v>7</v>
+      </c>
+      <c r="ED18">
+        <v>4</v>
+      </c>
+      <c r="EE18">
+        <v>2</v>
+      </c>
+      <c r="EF18">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10261,8 +10792,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA19">
+        <v>6</v>
+      </c>
+      <c r="EB19">
+        <v>3</v>
+      </c>
+      <c r="EC19">
+        <v>4</v>
+      </c>
+      <c r="ED19">
+        <v>6</v>
+      </c>
+      <c r="EE19">
+        <v>3</v>
+      </c>
+      <c r="EF19">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10498,8 +11047,26 @@
         <f t="shared" si="13"/>
         <v>Mới lạ chưa nghe bao giờ</v>
       </c>
+      <c r="EA20">
+        <v>4</v>
+      </c>
+      <c r="EB20">
+        <v>6</v>
+      </c>
+      <c r="EC20">
+        <v>5</v>
+      </c>
+      <c r="ED20">
+        <v>4</v>
+      </c>
+      <c r="EE20">
+        <v>6</v>
+      </c>
+      <c r="EF20">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10741,8 +11308,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA21">
+        <v>4</v>
+      </c>
+      <c r="EB21">
+        <v>1</v>
+      </c>
+      <c r="EC21">
+        <v>7</v>
+      </c>
+      <c r="ED21">
+        <v>4</v>
+      </c>
+      <c r="EE21">
+        <v>1</v>
+      </c>
+      <c r="EF21">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10986,8 +11571,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA22">
+        <v>3</v>
+      </c>
+      <c r="EB22">
+        <v>2</v>
+      </c>
+      <c r="EC22">
+        <v>4</v>
+      </c>
+      <c r="ED22">
+        <v>3</v>
+      </c>
+      <c r="EE22">
+        <v>2</v>
+      </c>
+      <c r="EF22">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -11231,8 +11834,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA23">
+        <v>5</v>
+      </c>
+      <c r="EB23">
+        <v>2</v>
+      </c>
+      <c r="EC23">
+        <v>3</v>
+      </c>
+      <c r="ED23">
+        <v>5</v>
+      </c>
+      <c r="EE23">
+        <v>2</v>
+      </c>
+      <c r="EF23">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -11470,8 +12091,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA24">
+        <v>6</v>
+      </c>
+      <c r="EB24">
+        <v>4</v>
+      </c>
+      <c r="EC24">
+        <v>3</v>
+      </c>
+      <c r="ED24">
+        <v>6</v>
+      </c>
+      <c r="EE24">
+        <v>4</v>
+      </c>
+      <c r="EF24">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -11711,8 +12350,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA25">
+        <v>4</v>
+      </c>
+      <c r="EB25">
+        <v>1</v>
+      </c>
+      <c r="EC25">
+        <v>5</v>
+      </c>
+      <c r="ED25">
+        <v>4</v>
+      </c>
+      <c r="EE25">
+        <v>1</v>
+      </c>
+      <c r="EF25">
+        <v>5</v>
+      </c>
     </row>
-    <row r="26" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -11950,8 +12607,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA26">
+        <v>5</v>
+      </c>
+      <c r="EB26">
+        <v>6</v>
+      </c>
+      <c r="EC26">
+        <v>4</v>
+      </c>
+      <c r="ED26">
+        <v>5</v>
+      </c>
+      <c r="EE26">
+        <v>6</v>
+      </c>
+      <c r="EF26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -12195,8 +12870,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA27">
+        <v>6</v>
+      </c>
+      <c r="EB27">
+        <v>2</v>
+      </c>
+      <c r="EC27">
+        <v>3</v>
+      </c>
+      <c r="ED27">
+        <v>6</v>
+      </c>
+      <c r="EE27">
+        <v>2</v>
+      </c>
+      <c r="EF27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -12440,8 +13133,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA28">
+        <v>7</v>
+      </c>
+      <c r="EB28">
+        <v>5</v>
+      </c>
+      <c r="EC28">
+        <v>2</v>
+      </c>
+      <c r="ED28">
+        <v>7</v>
+      </c>
+      <c r="EE28">
+        <v>5</v>
+      </c>
+      <c r="EF28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -12683,8 +13394,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA29">
+        <v>4</v>
+      </c>
+      <c r="EB29">
+        <v>7</v>
+      </c>
+      <c r="EC29">
+        <v>1</v>
+      </c>
+      <c r="ED29">
+        <v>4</v>
+      </c>
+      <c r="EE29">
+        <v>7</v>
+      </c>
+      <c r="EF29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -12924,8 +13653,26 @@
         <f t="shared" si="13"/>
         <v>Công nghệ âm độ nên muốn trải nghiệm</v>
       </c>
+      <c r="EA30">
+        <v>4</v>
+      </c>
+      <c r="EB30">
+        <v>7</v>
+      </c>
+      <c r="EC30">
+        <v>3</v>
+      </c>
+      <c r="ED30">
+        <v>4</v>
+      </c>
+      <c r="EE30">
+        <v>7</v>
+      </c>
+      <c r="EF30">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -13169,8 +13916,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Bảng ý tường mang đến một sản phẩm có công nghệ mới mang lại trải nghiệm vị giác mới lạ </v>
       </c>
+      <c r="EA31">
+        <v>2</v>
+      </c>
+      <c r="EB31">
+        <v>5</v>
+      </c>
+      <c r="EC31">
+        <v>1</v>
+      </c>
+      <c r="ED31">
+        <v>2</v>
+      </c>
+      <c r="EE31">
+        <v>5</v>
+      </c>
+      <c r="EF31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -13410,8 +14175,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA32">
+        <v>2</v>
+      </c>
+      <c r="EB32">
+        <v>5</v>
+      </c>
+      <c r="EC32">
+        <v>3</v>
+      </c>
+      <c r="ED32">
+        <v>2</v>
+      </c>
+      <c r="EE32">
+        <v>5</v>
+      </c>
+      <c r="EF32">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -13651,8 +14434,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Y tương này độc đáo va bia sẽ thơm ngon hơn. </v>
       </c>
+      <c r="EA33">
+        <v>4</v>
+      </c>
+      <c r="EB33">
+        <v>1</v>
+      </c>
+      <c r="EC33">
+        <v>6</v>
+      </c>
+      <c r="ED33">
+        <v>4</v>
+      </c>
+      <c r="EE33">
+        <v>1</v>
+      </c>
+      <c r="EF33">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -13896,8 +14697,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA34">
+        <v>1</v>
+      </c>
+      <c r="EB34">
+        <v>5</v>
+      </c>
+      <c r="EC34">
+        <v>3</v>
+      </c>
+      <c r="ED34">
+        <v>1</v>
+      </c>
+      <c r="EE34">
+        <v>5</v>
+      </c>
+      <c r="EF34">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -14141,8 +14960,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA35">
+        <v>6</v>
+      </c>
+      <c r="EB35">
+        <v>1</v>
+      </c>
+      <c r="EC35">
+        <v>3</v>
+      </c>
+      <c r="ED35">
+        <v>6</v>
+      </c>
+      <c r="EE35">
+        <v>1</v>
+      </c>
+      <c r="EF35">
+        <v>3</v>
+      </c>
     </row>
-    <row r="36" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -14386,8 +15223,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Thành tựu nghiên cứu đạt đến đỉnh cao nên yên tâm về chất lượng của bia. </v>
       </c>
+      <c r="EA36">
+        <v>7</v>
+      </c>
+      <c r="EB36">
+        <v>3</v>
+      </c>
+      <c r="EC36">
+        <v>5</v>
+      </c>
+      <c r="ED36">
+        <v>7</v>
+      </c>
+      <c r="EE36">
+        <v>3</v>
+      </c>
+      <c r="EF36">
+        <v>5</v>
+      </c>
     </row>
-    <row r="37" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -14631,8 +15486,26 @@
         <f t="shared" si="13"/>
         <v>Bảng ý tưởng mang lại một sản phẩm có công nghệ đột phá và có hương trái cây nghe cuốn hút người nghe</v>
       </c>
+      <c r="EA37">
+        <v>7</v>
+      </c>
+      <c r="EB37">
+        <v>3</v>
+      </c>
+      <c r="EC37">
+        <v>5</v>
+      </c>
+      <c r="ED37">
+        <v>7</v>
+      </c>
+      <c r="EE37">
+        <v>3</v>
+      </c>
+      <c r="EF37">
+        <v>5</v>
+      </c>
     </row>
-    <row r="38" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -14870,8 +15743,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Loại này bia sẽ thơm ngon va đậm đà hương vị hơn. </v>
       </c>
+      <c r="EA38">
+        <v>2</v>
+      </c>
+      <c r="EB38">
+        <v>6</v>
+      </c>
+      <c r="EC38">
+        <v>4</v>
+      </c>
+      <c r="ED38">
+        <v>2</v>
+      </c>
+      <c r="EE38">
+        <v>6</v>
+      </c>
+      <c r="EF38">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -15115,8 +16006,26 @@
         <f t="shared" si="13"/>
         <v>Công nghệ chiết xuất âm độ, chất bia đậm vị đích thực có cảm giác mát mẻ. Bia thường uống ngon hơn khi lạnh</v>
       </c>
+      <c r="EA39">
+        <v>5</v>
+      </c>
+      <c r="EB39">
+        <v>7</v>
+      </c>
+      <c r="EC39">
+        <v>1</v>
+      </c>
+      <c r="ED39">
+        <v>5</v>
+      </c>
+      <c r="EE39">
+        <v>7</v>
+      </c>
+      <c r="EF39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -15358,8 +16267,26 @@
         <f t="shared" si="13"/>
         <v>Vì ý tưởng dùng thêm công nghệ chiết suất âm độ khác biệt hơn</v>
       </c>
+      <c r="EA40">
+        <v>7</v>
+      </c>
+      <c r="EB40">
+        <v>3</v>
+      </c>
+      <c r="EC40">
+        <v>2</v>
+      </c>
+      <c r="ED40">
+        <v>7</v>
+      </c>
+      <c r="EE40">
+        <v>3</v>
+      </c>
+      <c r="EF40">
+        <v>2</v>
+      </c>
     </row>
-    <row r="41" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -15603,8 +16530,26 @@
         <f t="shared" si="13"/>
         <v>Dùng công nghệ chiết suất âm độ</v>
       </c>
+      <c r="EA41">
+        <v>2</v>
+      </c>
+      <c r="EB41">
+        <v>1</v>
+      </c>
+      <c r="EC41">
+        <v>4</v>
+      </c>
+      <c r="ED41">
+        <v>2</v>
+      </c>
+      <c r="EE41">
+        <v>1</v>
+      </c>
+      <c r="EF41">
+        <v>4</v>
+      </c>
     </row>
-    <row r="42" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -15848,8 +16793,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Dùng công nghệ chiết suất âm độ giữ tinh chất hoa bia chắc chắn làm cho bia ngon hơn, vị đậm bia hơn </v>
       </c>
+      <c r="EA42">
+        <v>1</v>
+      </c>
+      <c r="EB42">
+        <v>4</v>
+      </c>
+      <c r="EC42">
+        <v>7</v>
+      </c>
+      <c r="ED42">
+        <v>1</v>
+      </c>
+      <c r="EE42">
+        <v>4</v>
+      </c>
+      <c r="EF42">
+        <v>7</v>
+      </c>
     </row>
-    <row r="43" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -16089,8 +17052,26 @@
         <f t="shared" si="13"/>
         <v>Tôi thích ý tưởng thứ 2 vì có  công nghệ chiết suất âm mang đến mùi thơm của hoa và hương trái cây tươi mát và tôi chưa thấy có hoa làm ra bia</v>
       </c>
+      <c r="EA43">
+        <v>2</v>
+      </c>
+      <c r="EB43">
+        <v>6</v>
+      </c>
+      <c r="EC43">
+        <v>1</v>
+      </c>
+      <c r="ED43">
+        <v>2</v>
+      </c>
+      <c r="EE43">
+        <v>6</v>
+      </c>
+      <c r="EF43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -16334,8 +17315,26 @@
         <f t="shared" si="13"/>
         <v>Gấp đôi hương vị và có mùi hương trái cây</v>
       </c>
+      <c r="EA44">
+        <v>3</v>
+      </c>
+      <c r="EB44">
+        <v>6</v>
+      </c>
+      <c r="EC44">
+        <v>5</v>
+      </c>
+      <c r="ED44">
+        <v>3</v>
+      </c>
+      <c r="EE44">
+        <v>6</v>
+      </c>
+      <c r="EF44">
+        <v>5</v>
+      </c>
     </row>
-    <row r="45" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -16577,8 +17576,26 @@
         <f t="shared" si="13"/>
         <v>Vì sản phẩm ở ý tưởng thứ 3 có công nghệ chiết suất âm độ rất  mới mẻ làm tôi cảm thấy rất mới lạ và trông chờ tới sự khác biệt của nó</v>
       </c>
+      <c r="EA45">
+        <v>4</v>
+      </c>
+      <c r="EB45">
+        <v>2</v>
+      </c>
+      <c r="EC45">
+        <v>7</v>
+      </c>
+      <c r="ED45">
+        <v>4</v>
+      </c>
+      <c r="EE45">
+        <v>2</v>
+      </c>
+      <c r="EF45">
+        <v>7</v>
+      </c>
     </row>
-    <row r="46" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -16816,8 +17833,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA46">
+        <v>3</v>
+      </c>
+      <c r="EB46">
+        <v>6</v>
+      </c>
+      <c r="EC46">
+        <v>4</v>
+      </c>
+      <c r="ED46">
+        <v>3</v>
+      </c>
+      <c r="EE46">
+        <v>6</v>
+      </c>
+      <c r="EF46">
+        <v>4</v>
+      </c>
     </row>
-    <row r="47" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -17057,8 +18092,26 @@
         <f t="shared" si="13"/>
         <v>Vì được làm bằng công nghệ mới có hương trái cây tươi mát, gấp đôi hương vị và mùi thơm nên tôi thích nhất</v>
       </c>
+      <c r="EA47">
+        <v>3</v>
+      </c>
+      <c r="EB47">
+        <v>4</v>
+      </c>
+      <c r="EC47">
+        <v>1</v>
+      </c>
+      <c r="ED47">
+        <v>3</v>
+      </c>
+      <c r="EE47">
+        <v>4</v>
+      </c>
+      <c r="EF47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -17300,8 +18353,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA48">
+        <v>6</v>
+      </c>
+      <c r="EB48">
+        <v>3</v>
+      </c>
+      <c r="EC48">
+        <v>5</v>
+      </c>
+      <c r="ED48">
+        <v>6</v>
+      </c>
+      <c r="EE48">
+        <v>3</v>
+      </c>
+      <c r="EF48">
+        <v>5</v>
+      </c>
     </row>
-    <row r="49" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -17541,8 +18612,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA49">
+        <v>2</v>
+      </c>
+      <c r="EB49">
+        <v>5</v>
+      </c>
+      <c r="EC49">
+        <v>4</v>
+      </c>
+      <c r="ED49">
+        <v>2</v>
+      </c>
+      <c r="EE49">
+        <v>5</v>
+      </c>
+      <c r="EF49">
+        <v>4</v>
+      </c>
     </row>
-    <row r="50" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -17786,8 +18875,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Kết hợp 3 loại hoa bia nổi tiếng, bia âm độ giữ nguyên hương vị của bia </v>
       </c>
+      <c r="EA50">
+        <v>3</v>
+      </c>
+      <c r="EB50">
+        <v>4</v>
+      </c>
+      <c r="EC50">
+        <v>2</v>
+      </c>
+      <c r="ED50">
+        <v>3</v>
+      </c>
+      <c r="EE50">
+        <v>4</v>
+      </c>
+      <c r="EF50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -18027,8 +19134,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA51">
+        <v>3</v>
+      </c>
+      <c r="EB51">
+        <v>4</v>
+      </c>
+      <c r="EC51">
+        <v>7</v>
+      </c>
+      <c r="ED51">
+        <v>3</v>
+      </c>
+      <c r="EE51">
+        <v>4</v>
+      </c>
+      <c r="EF51">
+        <v>7</v>
+      </c>
     </row>
-    <row r="52" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -18272,8 +19397,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA52">
+        <v>1</v>
+      </c>
+      <c r="EB52">
+        <v>6</v>
+      </c>
+      <c r="EC52">
+        <v>3</v>
+      </c>
+      <c r="ED52">
+        <v>1</v>
+      </c>
+      <c r="EE52">
+        <v>6</v>
+      </c>
+      <c r="EF52">
+        <v>3</v>
+      </c>
     </row>
-    <row r="53" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -18517,8 +19660,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA53">
+        <v>2</v>
+      </c>
+      <c r="EB53">
+        <v>4</v>
+      </c>
+      <c r="EC53">
+        <v>1</v>
+      </c>
+      <c r="ED53">
+        <v>2</v>
+      </c>
+      <c r="EE53">
+        <v>4</v>
+      </c>
+      <c r="EF53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -18760,8 +19921,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA54">
+        <v>2</v>
+      </c>
+      <c r="EB54">
+        <v>3</v>
+      </c>
+      <c r="EC54">
+        <v>4</v>
+      </c>
+      <c r="ED54">
+        <v>2</v>
+      </c>
+      <c r="EE54">
+        <v>3</v>
+      </c>
+      <c r="EF54">
+        <v>4</v>
+      </c>
     </row>
-    <row r="55" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -19005,8 +20184,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Dung công nghệ chiết suất âm độ nghe có vẻ chuyên nghiệp hơn tiên tiến hơn </v>
       </c>
+      <c r="EA55">
+        <v>7</v>
+      </c>
+      <c r="EB55">
+        <v>3</v>
+      </c>
+      <c r="EC55">
+        <v>6</v>
+      </c>
+      <c r="ED55">
+        <v>7</v>
+      </c>
+      <c r="EE55">
+        <v>3</v>
+      </c>
+      <c r="EF55">
+        <v>6</v>
+      </c>
     </row>
-    <row r="56" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -19248,8 +20445,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA56">
+        <v>3</v>
+      </c>
+      <c r="EB56">
+        <v>5</v>
+      </c>
+      <c r="EC56">
+        <v>6</v>
+      </c>
+      <c r="ED56">
+        <v>3</v>
+      </c>
+      <c r="EE56">
+        <v>5</v>
+      </c>
+      <c r="EF56">
+        <v>6</v>
+      </c>
     </row>
-    <row r="57" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -19493,8 +20708,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA57">
+        <v>4</v>
+      </c>
+      <c r="EB57">
+        <v>3</v>
+      </c>
+      <c r="EC57">
+        <v>7</v>
+      </c>
+      <c r="ED57">
+        <v>4</v>
+      </c>
+      <c r="EE57">
+        <v>3</v>
+      </c>
+      <c r="EF57">
+        <v>7</v>
+      </c>
     </row>
-    <row r="58" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -19738,8 +20971,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA58">
+        <v>4</v>
+      </c>
+      <c r="EB58">
+        <v>3</v>
+      </c>
+      <c r="EC58">
+        <v>5</v>
+      </c>
+      <c r="ED58">
+        <v>4</v>
+      </c>
+      <c r="EE58">
+        <v>3</v>
+      </c>
+      <c r="EF58">
+        <v>5</v>
+      </c>
     </row>
-    <row r="59" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -19983,8 +21234,26 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Bảng ý tưởng sản phẩm chú trọng đến việc làm ra loại bia từ nhiều công nghệ, công thức và quá trình chế biến cho người nghe cảm giác yên tâm và thể hiện độ ngon của bia </v>
       </c>
+      <c r="EA59">
+        <v>6</v>
+      </c>
+      <c r="EB59">
+        <v>1</v>
+      </c>
+      <c r="EC59">
+        <v>2</v>
+      </c>
+      <c r="ED59">
+        <v>6</v>
+      </c>
+      <c r="EE59">
+        <v>1</v>
+      </c>
+      <c r="EF59">
+        <v>2</v>
+      </c>
     </row>
-    <row r="60" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -20226,8 +21495,26 @@
         <f t="shared" si="13"/>
         <v>Trải nghiệm mới lạ với công nghệ chiết xuất âm độ vẫn là điều khiến tôi thích thú nhất</v>
       </c>
+      <c r="EA60">
+        <v>6</v>
+      </c>
+      <c r="EB60">
+        <v>3</v>
+      </c>
+      <c r="EC60">
+        <v>5</v>
+      </c>
+      <c r="ED60">
+        <v>6</v>
+      </c>
+      <c r="EE60">
+        <v>3</v>
+      </c>
+      <c r="EF60">
+        <v>5</v>
+      </c>
     </row>
-    <row r="61" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -20471,8 +21758,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA61">
+        <v>4</v>
+      </c>
+      <c r="EB61">
+        <v>6</v>
+      </c>
+      <c r="EC61">
+        <v>5</v>
+      </c>
+      <c r="ED61">
+        <v>4</v>
+      </c>
+      <c r="EE61">
+        <v>6</v>
+      </c>
+      <c r="EF61">
+        <v>5</v>
+      </c>
     </row>
-    <row r="62" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -20716,8 +22021,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA62">
+        <v>4</v>
+      </c>
+      <c r="EB62">
+        <v>3</v>
+      </c>
+      <c r="EC62">
+        <v>1</v>
+      </c>
+      <c r="ED62">
+        <v>4</v>
+      </c>
+      <c r="EE62">
+        <v>3</v>
+      </c>
+      <c r="EF62">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -20959,8 +22282,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA63">
+        <v>1</v>
+      </c>
+      <c r="EB63">
+        <v>3</v>
+      </c>
+      <c r="EC63">
+        <v>5</v>
+      </c>
+      <c r="ED63">
+        <v>1</v>
+      </c>
+      <c r="EE63">
+        <v>3</v>
+      </c>
+      <c r="EF63">
+        <v>5</v>
+      </c>
     </row>
-    <row r="64" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -21204,8 +22545,26 @@
         <f t="shared" si="13"/>
         <v>Công nghê âm độ nên cảm giác an toàn hơn</v>
       </c>
+      <c r="EA64">
+        <v>7</v>
+      </c>
+      <c r="EB64">
+        <v>3</v>
+      </c>
+      <c r="EC64">
+        <v>5</v>
+      </c>
+      <c r="ED64">
+        <v>7</v>
+      </c>
+      <c r="EE64">
+        <v>3</v>
+      </c>
+      <c r="EF64">
+        <v>5</v>
+      </c>
     </row>
-    <row r="65" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -21449,8 +22808,26 @@
         <f t="shared" si="13"/>
         <v>Bia âm độ mát lạnh lại còn thơm hương trái cây sẽ rất ngon</v>
       </c>
+      <c r="EA65">
+        <v>2</v>
+      </c>
+      <c r="EB65">
+        <v>3</v>
+      </c>
+      <c r="EC65">
+        <v>1</v>
+      </c>
+      <c r="ED65">
+        <v>2</v>
+      </c>
+      <c r="EE65">
+        <v>3</v>
+      </c>
+      <c r="EF65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -21694,8 +23071,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA66">
+        <v>6</v>
+      </c>
+      <c r="EB66">
+        <v>4</v>
+      </c>
+      <c r="EC66">
+        <v>3</v>
+      </c>
+      <c r="ED66">
+        <v>6</v>
+      </c>
+      <c r="EE66">
+        <v>4</v>
+      </c>
+      <c r="EF66">
+        <v>3</v>
+      </c>
     </row>
-    <row r="67" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -21939,8 +23334,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA67">
+        <v>7</v>
+      </c>
+      <c r="EB67">
+        <v>5</v>
+      </c>
+      <c r="EC67">
+        <v>4</v>
+      </c>
+      <c r="ED67">
+        <v>7</v>
+      </c>
+      <c r="EE67">
+        <v>5</v>
+      </c>
+      <c r="EF67">
+        <v>4</v>
+      </c>
     </row>
-    <row r="68" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -22178,8 +23591,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA68">
+        <v>1</v>
+      </c>
+      <c r="EB68">
+        <v>2</v>
+      </c>
+      <c r="EC68">
+        <v>3</v>
+      </c>
+      <c r="ED68">
+        <v>1</v>
+      </c>
+      <c r="EE68">
+        <v>2</v>
+      </c>
+      <c r="EF68">
+        <v>3</v>
+      </c>
     </row>
-    <row r="69" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -22417,8 +23848,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA69">
+        <v>2</v>
+      </c>
+      <c r="EB69">
+        <v>3</v>
+      </c>
+      <c r="EC69">
+        <v>1</v>
+      </c>
+      <c r="ED69">
+        <v>2</v>
+      </c>
+      <c r="EE69">
+        <v>3</v>
+      </c>
+      <c r="EF69">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -22662,8 +24111,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA70">
+        <v>3</v>
+      </c>
+      <c r="EB70">
+        <v>1</v>
+      </c>
+      <c r="EC70">
+        <v>2</v>
+      </c>
+      <c r="ED70">
+        <v>3</v>
+      </c>
+      <c r="EE70">
+        <v>1</v>
+      </c>
+      <c r="EF70">
+        <v>2</v>
+      </c>
     </row>
-    <row r="71" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -22901,8 +24368,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA71">
+        <v>5</v>
+      </c>
+      <c r="EB71">
+        <v>3</v>
+      </c>
+      <c r="EC71">
+        <v>2</v>
+      </c>
+      <c r="ED71">
+        <v>5</v>
+      </c>
+      <c r="EE71">
+        <v>3</v>
+      </c>
+      <c r="EF71">
+        <v>2</v>
+      </c>
     </row>
-    <row r="72" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -23144,8 +24629,26 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
+      <c r="EA72">
+        <v>6</v>
+      </c>
+      <c r="EB72">
+        <v>3</v>
+      </c>
+      <c r="EC72">
+        <v>4</v>
+      </c>
+      <c r="ED72">
+        <v>6</v>
+      </c>
+      <c r="EE72">
+        <v>3</v>
+      </c>
+      <c r="EF72">
+        <v>4</v>
+      </c>
     </row>
-    <row r="73" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -23389,8 +24892,26 @@
         <f t="shared" ref="DZ73:DZ136" si="20">IF(DT73=3,DN73,"")</f>
         <v>Có công nghệ cao tiêu chuẩn khép kín hương vị ngon</v>
       </c>
+      <c r="EA73">
+        <v>6</v>
+      </c>
+      <c r="EB73">
+        <v>7</v>
+      </c>
+      <c r="EC73">
+        <v>2</v>
+      </c>
+      <c r="ED73">
+        <v>6</v>
+      </c>
+      <c r="EE73">
+        <v>7</v>
+      </c>
+      <c r="EF73">
+        <v>2</v>
+      </c>
     </row>
-    <row r="74" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -23626,8 +25147,26 @@
         <f t="shared" si="20"/>
         <v>Có hương vị trái cây tôi rất thích nó và đc nấu âm độ nên tôi nghĩ cx ok</v>
       </c>
+      <c r="EA74">
+        <v>5</v>
+      </c>
+      <c r="EB74">
+        <v>6</v>
+      </c>
+      <c r="EC74">
+        <v>1</v>
+      </c>
+      <c r="ED74">
+        <v>5</v>
+      </c>
+      <c r="EE74">
+        <v>6</v>
+      </c>
+      <c r="EF74">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -23871,8 +25410,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA75">
+        <v>4</v>
+      </c>
+      <c r="EB75">
+        <v>6</v>
+      </c>
+      <c r="EC75">
+        <v>1</v>
+      </c>
+      <c r="ED75">
+        <v>4</v>
+      </c>
+      <c r="EE75">
+        <v>6</v>
+      </c>
+      <c r="EF75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -24112,8 +25669,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA76">
+        <v>1</v>
+      </c>
+      <c r="EB76">
+        <v>7</v>
+      </c>
+      <c r="EC76">
+        <v>6</v>
+      </c>
+      <c r="ED76">
+        <v>1</v>
+      </c>
+      <c r="EE76">
+        <v>7</v>
+      </c>
+      <c r="EF76">
+        <v>6</v>
+      </c>
     </row>
-    <row r="77" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -24357,8 +25932,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA77">
+        <v>4</v>
+      </c>
+      <c r="EB77">
+        <v>5</v>
+      </c>
+      <c r="EC77">
+        <v>3</v>
+      </c>
+      <c r="ED77">
+        <v>4</v>
+      </c>
+      <c r="EE77">
+        <v>5</v>
+      </c>
+      <c r="EF77">
+        <v>3</v>
+      </c>
     </row>
-    <row r="78" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -24602,8 +26195,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA78">
+        <v>2</v>
+      </c>
+      <c r="EB78">
+        <v>4</v>
+      </c>
+      <c r="EC78">
+        <v>1</v>
+      </c>
+      <c r="ED78">
+        <v>2</v>
+      </c>
+      <c r="EE78">
+        <v>4</v>
+      </c>
+      <c r="EF78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -24847,8 +26458,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA79">
+        <v>7</v>
+      </c>
+      <c r="EB79">
+        <v>5</v>
+      </c>
+      <c r="EC79">
+        <v>3</v>
+      </c>
+      <c r="ED79">
+        <v>7</v>
+      </c>
+      <c r="EE79">
+        <v>5</v>
+      </c>
+      <c r="EF79">
+        <v>3</v>
+      </c>
     </row>
-    <row r="80" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -25090,8 +26719,26 @@
         <f t="shared" si="20"/>
         <v>Vi co công nghệ chiêt suât âm độ lam cho tôi cảm giác vị bia sẽ thơm ngon hơn.</v>
       </c>
+      <c r="EA80">
+        <v>6</v>
+      </c>
+      <c r="EB80">
+        <v>4</v>
+      </c>
+      <c r="EC80">
+        <v>1</v>
+      </c>
+      <c r="ED80">
+        <v>6</v>
+      </c>
+      <c r="EE80">
+        <v>4</v>
+      </c>
+      <c r="EF80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -25335,8 +26982,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA81">
+        <v>1</v>
+      </c>
+      <c r="EB81">
+        <v>4</v>
+      </c>
+      <c r="EC81">
+        <v>5</v>
+      </c>
+      <c r="ED81">
+        <v>1</v>
+      </c>
+      <c r="EE81">
+        <v>4</v>
+      </c>
+      <c r="EF81">
+        <v>5</v>
+      </c>
     </row>
-    <row r="82" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -25578,8 +27243,26 @@
         <f t="shared" si="20"/>
         <v>Tôi cảm thấy bia nay sẽ mang lại cho tôi cảm giác vị bia sẽ cực đỉnh hơn</v>
       </c>
+      <c r="EA82">
+        <v>4</v>
+      </c>
+      <c r="EB82">
+        <v>5</v>
+      </c>
+      <c r="EC82">
+        <v>1</v>
+      </c>
+      <c r="ED82">
+        <v>4</v>
+      </c>
+      <c r="EE82">
+        <v>5</v>
+      </c>
+      <c r="EF82">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -25817,8 +27500,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA83">
+        <v>1</v>
+      </c>
+      <c r="EB83">
+        <v>3</v>
+      </c>
+      <c r="EC83">
+        <v>2</v>
+      </c>
+      <c r="ED83">
+        <v>1</v>
+      </c>
+      <c r="EE83">
+        <v>3</v>
+      </c>
+      <c r="EF83">
+        <v>2</v>
+      </c>
     </row>
-    <row r="84" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -26058,8 +27759,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA84">
+        <v>6</v>
+      </c>
+      <c r="EB84">
+        <v>5</v>
+      </c>
+      <c r="EC84">
+        <v>3</v>
+      </c>
+      <c r="ED84">
+        <v>6</v>
+      </c>
+      <c r="EE84">
+        <v>5</v>
+      </c>
+      <c r="EF84">
+        <v>3</v>
+      </c>
     </row>
-    <row r="85" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -26299,8 +28018,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA85">
+        <v>2</v>
+      </c>
+      <c r="EB85">
+        <v>5</v>
+      </c>
+      <c r="EC85">
+        <v>6</v>
+      </c>
+      <c r="ED85">
+        <v>2</v>
+      </c>
+      <c r="EE85">
+        <v>5</v>
+      </c>
+      <c r="EF85">
+        <v>6</v>
+      </c>
     </row>
-    <row r="86" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -26544,8 +28281,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA86">
+        <v>4</v>
+      </c>
+      <c r="EB86">
+        <v>6</v>
+      </c>
+      <c r="EC86">
+        <v>7</v>
+      </c>
+      <c r="ED86">
+        <v>4</v>
+      </c>
+      <c r="EE86">
+        <v>6</v>
+      </c>
+      <c r="EF86">
+        <v>7</v>
+      </c>
     </row>
-    <row r="87" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -26781,8 +28536,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA87">
+        <v>2</v>
+      </c>
+      <c r="EB87">
+        <v>7</v>
+      </c>
+      <c r="EC87">
+        <v>1</v>
+      </c>
+      <c r="ED87">
+        <v>2</v>
+      </c>
+      <c r="EE87">
+        <v>7</v>
+      </c>
+      <c r="EF87">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -27022,8 +28795,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA88">
+        <v>6</v>
+      </c>
+      <c r="EB88">
+        <v>1</v>
+      </c>
+      <c r="EC88">
+        <v>2</v>
+      </c>
+      <c r="ED88">
+        <v>6</v>
+      </c>
+      <c r="EE88">
+        <v>1</v>
+      </c>
+      <c r="EF88">
+        <v>2</v>
+      </c>
     </row>
-    <row r="89" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -27267,8 +29058,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA89">
+        <v>7</v>
+      </c>
+      <c r="EB89">
+        <v>5</v>
+      </c>
+      <c r="EC89">
+        <v>6</v>
+      </c>
+      <c r="ED89">
+        <v>7</v>
+      </c>
+      <c r="EE89">
+        <v>5</v>
+      </c>
+      <c r="EF89">
+        <v>6</v>
+      </c>
     </row>
-    <row r="90" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -27508,8 +29317,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA90">
+        <v>4</v>
+      </c>
+      <c r="EB90">
+        <v>3</v>
+      </c>
+      <c r="EC90">
+        <v>1</v>
+      </c>
+      <c r="ED90">
+        <v>4</v>
+      </c>
+      <c r="EE90">
+        <v>3</v>
+      </c>
+      <c r="EF90">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -27749,8 +29576,26 @@
         <f t="shared" si="20"/>
         <v>Có hương hoa &amp; trái cây mới lạ hơn</v>
       </c>
+      <c r="EA91">
+        <v>4</v>
+      </c>
+      <c r="EB91">
+        <v>1</v>
+      </c>
+      <c r="EC91">
+        <v>3</v>
+      </c>
+      <c r="ED91">
+        <v>4</v>
+      </c>
+      <c r="EE91">
+        <v>1</v>
+      </c>
+      <c r="EF91">
+        <v>3</v>
+      </c>
     </row>
-    <row r="92" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -27992,8 +29837,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA92">
+        <v>7</v>
+      </c>
+      <c r="EB92">
+        <v>4</v>
+      </c>
+      <c r="EC92">
+        <v>6</v>
+      </c>
+      <c r="ED92">
+        <v>7</v>
+      </c>
+      <c r="EE92">
+        <v>4</v>
+      </c>
+      <c r="EF92">
+        <v>6</v>
+      </c>
     </row>
-    <row r="93" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -28233,8 +30096,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA93">
+        <v>3</v>
+      </c>
+      <c r="EB93">
+        <v>7</v>
+      </c>
+      <c r="EC93">
+        <v>2</v>
+      </c>
+      <c r="ED93">
+        <v>3</v>
+      </c>
+      <c r="EE93">
+        <v>7</v>
+      </c>
+      <c r="EF93">
+        <v>2</v>
+      </c>
     </row>
-    <row r="94" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -28474,8 +30355,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA94">
+        <v>5</v>
+      </c>
+      <c r="EB94">
+        <v>6</v>
+      </c>
+      <c r="EC94">
+        <v>2</v>
+      </c>
+      <c r="ED94">
+        <v>5</v>
+      </c>
+      <c r="EE94">
+        <v>6</v>
+      </c>
+      <c r="EF94">
+        <v>2</v>
+      </c>
     </row>
-    <row r="95" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -28715,8 +30614,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA95">
+        <v>5</v>
+      </c>
+      <c r="EB95">
+        <v>1</v>
+      </c>
+      <c r="EC95">
+        <v>7</v>
+      </c>
+      <c r="ED95">
+        <v>5</v>
+      </c>
+      <c r="EE95">
+        <v>1</v>
+      </c>
+      <c r="EF95">
+        <v>7</v>
+      </c>
     </row>
-    <row r="96" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -28956,8 +30873,26 @@
         <f t="shared" si="20"/>
         <v>Y tương này giup tôi thấy bia sẽ thơm ngon đậm đà dễ uống hơn.</v>
       </c>
+      <c r="EA96">
+        <v>6</v>
+      </c>
+      <c r="EB96">
+        <v>1</v>
+      </c>
+      <c r="EC96">
+        <v>7</v>
+      </c>
+      <c r="ED96">
+        <v>6</v>
+      </c>
+      <c r="EE96">
+        <v>1</v>
+      </c>
+      <c r="EF96">
+        <v>7</v>
+      </c>
     </row>
-    <row r="97" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -29199,8 +31134,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA97">
+        <v>6</v>
+      </c>
+      <c r="EB97">
+        <v>3</v>
+      </c>
+      <c r="EC97">
+        <v>7</v>
+      </c>
+      <c r="ED97">
+        <v>6</v>
+      </c>
+      <c r="EE97">
+        <v>3</v>
+      </c>
+      <c r="EF97">
+        <v>7</v>
+      </c>
     </row>
-    <row r="98" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -29442,8 +31395,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA98">
+        <v>2</v>
+      </c>
+      <c r="EB98">
+        <v>6</v>
+      </c>
+      <c r="EC98">
+        <v>5</v>
+      </c>
+      <c r="ED98">
+        <v>2</v>
+      </c>
+      <c r="EE98">
+        <v>6</v>
+      </c>
+      <c r="EF98">
+        <v>5</v>
+      </c>
     </row>
-    <row r="99" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -29681,8 +31652,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA99">
+        <v>1</v>
+      </c>
+      <c r="EB99">
+        <v>7</v>
+      </c>
+      <c r="EC99">
+        <v>4</v>
+      </c>
+      <c r="ED99">
+        <v>1</v>
+      </c>
+      <c r="EE99">
+        <v>7</v>
+      </c>
+      <c r="EF99">
+        <v>4</v>
+      </c>
     </row>
-    <row r="100" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -29920,8 +31909,26 @@
         <f t="shared" si="20"/>
         <v>Có trái cây thơm mát hơn</v>
       </c>
+      <c r="EA100">
+        <v>3</v>
+      </c>
+      <c r="EB100">
+        <v>7</v>
+      </c>
+      <c r="EC100">
+        <v>4</v>
+      </c>
+      <c r="ED100">
+        <v>3</v>
+      </c>
+      <c r="EE100">
+        <v>7</v>
+      </c>
+      <c r="EF100">
+        <v>4</v>
+      </c>
     </row>
-    <row r="101" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -30159,8 +32166,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA101">
+        <v>4</v>
+      </c>
+      <c r="EB101">
+        <v>5</v>
+      </c>
+      <c r="EC101">
+        <v>3</v>
+      </c>
+      <c r="ED101">
+        <v>4</v>
+      </c>
+      <c r="EE101">
+        <v>5</v>
+      </c>
+      <c r="EF101">
+        <v>3</v>
+      </c>
     </row>
-    <row r="102" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -30402,8 +32427,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA102">
+        <v>1</v>
+      </c>
+      <c r="EB102">
+        <v>4</v>
+      </c>
+      <c r="EC102">
+        <v>2</v>
+      </c>
+      <c r="ED102">
+        <v>1</v>
+      </c>
+      <c r="EE102">
+        <v>4</v>
+      </c>
+      <c r="EF102">
+        <v>2</v>
+      </c>
     </row>
-    <row r="103" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -30641,8 +32684,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA103">
+        <v>3</v>
+      </c>
+      <c r="EB103">
+        <v>7</v>
+      </c>
+      <c r="EC103">
+        <v>2</v>
+      </c>
+      <c r="ED103">
+        <v>3</v>
+      </c>
+      <c r="EE103">
+        <v>7</v>
+      </c>
+      <c r="EF103">
+        <v>2</v>
+      </c>
     </row>
-    <row r="104" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -30880,8 +32941,26 @@
         <f t="shared" si="20"/>
         <v>Cảm giác bia này sẽ thơm ngon hơn nhờ chế độ lam lạnh âm độ</v>
       </c>
+      <c r="EA104">
+        <v>1</v>
+      </c>
+      <c r="EB104">
+        <v>2</v>
+      </c>
+      <c r="EC104">
+        <v>3</v>
+      </c>
+      <c r="ED104">
+        <v>1</v>
+      </c>
+      <c r="EE104">
+        <v>2</v>
+      </c>
+      <c r="EF104">
+        <v>3</v>
+      </c>
     </row>
-    <row r="105" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -31119,8 +33198,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA105">
+        <v>7</v>
+      </c>
+      <c r="EB105">
+        <v>1</v>
+      </c>
+      <c r="EC105">
+        <v>5</v>
+      </c>
+      <c r="ED105">
+        <v>7</v>
+      </c>
+      <c r="EE105">
+        <v>1</v>
+      </c>
+      <c r="EF105">
+        <v>5</v>
+      </c>
     </row>
-    <row r="106" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -31360,8 +33457,26 @@
         <f t="shared" si="20"/>
         <v xml:space="preserve">Y tương nay giúp bia thơm ngon va lạnh ngon hơn. </v>
       </c>
+      <c r="EA106">
+        <v>1</v>
+      </c>
+      <c r="EB106">
+        <v>6</v>
+      </c>
+      <c r="EC106">
+        <v>4</v>
+      </c>
+      <c r="ED106">
+        <v>1</v>
+      </c>
+      <c r="EE106">
+        <v>6</v>
+      </c>
+      <c r="EF106">
+        <v>4</v>
+      </c>
     </row>
-    <row r="107" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -31601,8 +33716,26 @@
         <f t="shared" si="20"/>
         <v>Y tương nay hay ở chỗ bia chiêt suất âm độ sẽ cho ra vị bia đậm đà hương vị ngon hơn.</v>
       </c>
+      <c r="EA107">
+        <v>1</v>
+      </c>
+      <c r="EB107">
+        <v>2</v>
+      </c>
+      <c r="EC107">
+        <v>5</v>
+      </c>
+      <c r="ED107">
+        <v>1</v>
+      </c>
+      <c r="EE107">
+        <v>2</v>
+      </c>
+      <c r="EF107">
+        <v>5</v>
+      </c>
     </row>
-    <row r="108" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -31840,8 +33973,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA108">
+        <v>5</v>
+      </c>
+      <c r="EB108">
+        <v>4</v>
+      </c>
+      <c r="EC108">
+        <v>6</v>
+      </c>
+      <c r="ED108">
+        <v>5</v>
+      </c>
+      <c r="EE108">
+        <v>4</v>
+      </c>
+      <c r="EF108">
+        <v>6</v>
+      </c>
     </row>
-    <row r="109" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -32081,8 +34232,26 @@
         <f t="shared" si="20"/>
         <v>Có công nghệ chiết suất âm độ mới lạ &amp; độc đáo hơn</v>
       </c>
+      <c r="EA109">
+        <v>3</v>
+      </c>
+      <c r="EB109">
+        <v>5</v>
+      </c>
+      <c r="EC109">
+        <v>2</v>
+      </c>
+      <c r="ED109">
+        <v>3</v>
+      </c>
+      <c r="EE109">
+        <v>5</v>
+      </c>
+      <c r="EF109">
+        <v>2</v>
+      </c>
     </row>
-    <row r="110" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -32322,8 +34491,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA110">
+        <v>2</v>
+      </c>
+      <c r="EB110">
+        <v>7</v>
+      </c>
+      <c r="EC110">
+        <v>4</v>
+      </c>
+      <c r="ED110">
+        <v>2</v>
+      </c>
+      <c r="EE110">
+        <v>7</v>
+      </c>
+      <c r="EF110">
+        <v>4</v>
+      </c>
     </row>
-    <row r="111" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -32561,8 +34748,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA111">
+        <v>3</v>
+      </c>
+      <c r="EB111">
+        <v>5</v>
+      </c>
+      <c r="EC111">
+        <v>4</v>
+      </c>
+      <c r="ED111">
+        <v>3</v>
+      </c>
+      <c r="EE111">
+        <v>5</v>
+      </c>
+      <c r="EF111">
+        <v>4</v>
+      </c>
     </row>
-    <row r="112" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -32798,8 +35003,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA112">
+        <v>7</v>
+      </c>
+      <c r="EB112">
+        <v>6</v>
+      </c>
+      <c r="EC112">
+        <v>1</v>
+      </c>
+      <c r="ED112">
+        <v>7</v>
+      </c>
+      <c r="EE112">
+        <v>6</v>
+      </c>
+      <c r="EF112">
+        <v>1</v>
+      </c>
     </row>
-    <row r="113" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -33039,8 +35262,26 @@
         <f t="shared" si="20"/>
         <v>Y tương nay hay ở chỗ lam lạnh âm độ va hương trái cây sẽ giúp bia vưa thơm va tươi mát ngon hơn</v>
       </c>
+      <c r="EA113">
+        <v>2</v>
+      </c>
+      <c r="EB113">
+        <v>6</v>
+      </c>
+      <c r="EC113">
+        <v>7</v>
+      </c>
+      <c r="ED113">
+        <v>2</v>
+      </c>
+      <c r="EE113">
+        <v>6</v>
+      </c>
+      <c r="EF113">
+        <v>7</v>
+      </c>
     </row>
-    <row r="114" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -33280,8 +35521,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA114">
+        <v>5</v>
+      </c>
+      <c r="EB114">
+        <v>6</v>
+      </c>
+      <c r="EC114">
+        <v>1</v>
+      </c>
+      <c r="ED114">
+        <v>5</v>
+      </c>
+      <c r="EE114">
+        <v>6</v>
+      </c>
+      <c r="EF114">
+        <v>1</v>
+      </c>
     </row>
-    <row r="115" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -33521,8 +35780,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA115">
+        <v>7</v>
+      </c>
+      <c r="EB115">
+        <v>6</v>
+      </c>
+      <c r="EC115">
+        <v>4</v>
+      </c>
+      <c r="ED115">
+        <v>7</v>
+      </c>
+      <c r="EE115">
+        <v>6</v>
+      </c>
+      <c r="EF115">
+        <v>4</v>
+      </c>
     </row>
-    <row r="116" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -33762,8 +36039,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA116">
+        <v>5</v>
+      </c>
+      <c r="EB116">
+        <v>3</v>
+      </c>
+      <c r="EC116">
+        <v>6</v>
+      </c>
+      <c r="ED116">
+        <v>5</v>
+      </c>
+      <c r="EE116">
+        <v>3</v>
+      </c>
+      <c r="EF116">
+        <v>6</v>
+      </c>
     </row>
-    <row r="117" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -34003,8 +36298,26 @@
         <f t="shared" si="20"/>
         <v>Vì ý tưởng hay hơn (công nghệ chiết suất âm độ mới lạ &amp; tạo cảm giác mát lạnh hơn)</v>
       </c>
+      <c r="EA117">
+        <v>5</v>
+      </c>
+      <c r="EB117">
+        <v>4</v>
+      </c>
+      <c r="EC117">
+        <v>1</v>
+      </c>
+      <c r="ED117">
+        <v>5</v>
+      </c>
+      <c r="EE117">
+        <v>4</v>
+      </c>
+      <c r="EF117">
+        <v>1</v>
+      </c>
     </row>
-    <row r="118" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -34242,8 +36555,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA118">
+        <v>2</v>
+      </c>
+      <c r="EB118">
+        <v>7</v>
+      </c>
+      <c r="EC118">
+        <v>1</v>
+      </c>
+      <c r="ED118">
+        <v>2</v>
+      </c>
+      <c r="EE118">
+        <v>7</v>
+      </c>
+      <c r="EF118">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -34485,8 +36816,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA119">
+        <v>7</v>
+      </c>
+      <c r="EB119">
+        <v>1</v>
+      </c>
+      <c r="EC119">
+        <v>4</v>
+      </c>
+      <c r="ED119">
+        <v>7</v>
+      </c>
+      <c r="EE119">
+        <v>1</v>
+      </c>
+      <c r="EF119">
+        <v>4</v>
+      </c>
     </row>
-    <row r="120" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -34730,8 +37079,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA120">
+        <v>4</v>
+      </c>
+      <c r="EB120">
+        <v>1</v>
+      </c>
+      <c r="EC120">
+        <v>2</v>
+      </c>
+      <c r="ED120">
+        <v>4</v>
+      </c>
+      <c r="EE120">
+        <v>1</v>
+      </c>
+      <c r="EF120">
+        <v>2</v>
+      </c>
     </row>
-    <row r="121" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -34971,8 +37338,26 @@
         <f t="shared" si="20"/>
         <v xml:space="preserve">Tôi nghi y tương này cho tôi cảm giac bia sáng tạo mạnh mẽ độc đáo hơn. </v>
       </c>
+      <c r="EA121">
+        <v>1</v>
+      </c>
+      <c r="EB121">
+        <v>4</v>
+      </c>
+      <c r="EC121">
+        <v>6</v>
+      </c>
+      <c r="ED121">
+        <v>1</v>
+      </c>
+      <c r="EE121">
+        <v>4</v>
+      </c>
+      <c r="EF121">
+        <v>6</v>
+      </c>
     </row>
-    <row r="122" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -35212,8 +37597,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA122">
+        <v>6</v>
+      </c>
+      <c r="EB122">
+        <v>5</v>
+      </c>
+      <c r="EC122">
+        <v>7</v>
+      </c>
+      <c r="ED122">
+        <v>6</v>
+      </c>
+      <c r="EE122">
+        <v>5</v>
+      </c>
+      <c r="EF122">
+        <v>7</v>
+      </c>
     </row>
-    <row r="123" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -35453,8 +37856,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA123">
+        <v>7</v>
+      </c>
+      <c r="EB123">
+        <v>3</v>
+      </c>
+      <c r="EC123">
+        <v>1</v>
+      </c>
+      <c r="ED123">
+        <v>7</v>
+      </c>
+      <c r="EE123">
+        <v>3</v>
+      </c>
+      <c r="EF123">
+        <v>1</v>
+      </c>
     </row>
-    <row r="124" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -35698,8 +38119,26 @@
         <f t="shared" si="20"/>
         <v>Cong nghe mới hiện đại âm độ nên thấy thu hút hơn</v>
       </c>
+      <c r="EA124">
+        <v>4</v>
+      </c>
+      <c r="EB124">
+        <v>1</v>
+      </c>
+      <c r="EC124">
+        <v>2</v>
+      </c>
+      <c r="ED124">
+        <v>4</v>
+      </c>
+      <c r="EE124">
+        <v>1</v>
+      </c>
+      <c r="EF124">
+        <v>2</v>
+      </c>
     </row>
-    <row r="125" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -35937,8 +38376,26 @@
         <f t="shared" si="20"/>
         <v>Vì ý tưởng có các thành phần hoa bia nổi tiếng hơn</v>
       </c>
+      <c r="EA125">
+        <v>7</v>
+      </c>
+      <c r="EB125">
+        <v>3</v>
+      </c>
+      <c r="EC125">
+        <v>6</v>
+      </c>
+      <c r="ED125">
+        <v>7</v>
+      </c>
+      <c r="EE125">
+        <v>3</v>
+      </c>
+      <c r="EF125">
+        <v>6</v>
+      </c>
     </row>
-    <row r="126" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -36176,8 +38633,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA126">
+        <v>2</v>
+      </c>
+      <c r="EB126">
+        <v>5</v>
+      </c>
+      <c r="EC126">
+        <v>6</v>
+      </c>
+      <c r="ED126">
+        <v>2</v>
+      </c>
+      <c r="EE126">
+        <v>5</v>
+      </c>
+      <c r="EF126">
+        <v>6</v>
+      </c>
     </row>
-    <row r="127" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -36417,8 +38892,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA127">
+        <v>5</v>
+      </c>
+      <c r="EB127">
+        <v>6</v>
+      </c>
+      <c r="EC127">
+        <v>4</v>
+      </c>
+      <c r="ED127">
+        <v>5</v>
+      </c>
+      <c r="EE127">
+        <v>6</v>
+      </c>
+      <c r="EF127">
+        <v>4</v>
+      </c>
     </row>
-    <row r="128" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -36658,8 +39151,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA128">
+        <v>3</v>
+      </c>
+      <c r="EB128">
+        <v>4</v>
+      </c>
+      <c r="EC128">
+        <v>6</v>
+      </c>
+      <c r="ED128">
+        <v>3</v>
+      </c>
+      <c r="EE128">
+        <v>4</v>
+      </c>
+      <c r="EF128">
+        <v>6</v>
+      </c>
     </row>
-    <row r="129" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -36901,8 +39412,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA129">
+        <v>5</v>
+      </c>
+      <c r="EB129">
+        <v>7</v>
+      </c>
+      <c r="EC129">
+        <v>2</v>
+      </c>
+      <c r="ED129">
+        <v>5</v>
+      </c>
+      <c r="EE129">
+        <v>7</v>
+      </c>
+      <c r="EF129">
+        <v>2</v>
+      </c>
     </row>
-    <row r="130" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -37140,8 +39669,26 @@
         <f t="shared" si="20"/>
         <v>Vì ý tưởng công nghệ hiện đại hơn (công nghệ nấu bia chiết suất âm độ)</v>
       </c>
+      <c r="EA130">
+        <v>5</v>
+      </c>
+      <c r="EB130">
+        <v>1</v>
+      </c>
+      <c r="EC130">
+        <v>4</v>
+      </c>
+      <c r="ED130">
+        <v>5</v>
+      </c>
+      <c r="EE130">
+        <v>1</v>
+      </c>
+      <c r="EF130">
+        <v>4</v>
+      </c>
     </row>
-    <row r="131" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -37381,8 +39928,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA131">
+        <v>3</v>
+      </c>
+      <c r="EB131">
+        <v>2</v>
+      </c>
+      <c r="EC131">
+        <v>1</v>
+      </c>
+      <c r="ED131">
+        <v>3</v>
+      </c>
+      <c r="EE131">
+        <v>2</v>
+      </c>
+      <c r="EF131">
+        <v>1</v>
+      </c>
     </row>
-    <row r="132" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -37622,8 +40187,26 @@
         <f t="shared" si="20"/>
         <v>Vì công nghệ bia âm độ làm mình thích thú hơn</v>
       </c>
+      <c r="EA132">
+        <v>6</v>
+      </c>
+      <c r="EB132">
+        <v>3</v>
+      </c>
+      <c r="EC132">
+        <v>5</v>
+      </c>
+      <c r="ED132">
+        <v>6</v>
+      </c>
+      <c r="EE132">
+        <v>3</v>
+      </c>
+      <c r="EF132">
+        <v>5</v>
+      </c>
     </row>
-    <row r="133" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -37867,8 +40450,26 @@
         <f t="shared" si="20"/>
         <v>Y tưởng này lam tôi cảm thấy hương vị bia sẽ thơm ngon hơn</v>
       </c>
+      <c r="EA133">
+        <v>4</v>
+      </c>
+      <c r="EB133">
+        <v>3</v>
+      </c>
+      <c r="EC133">
+        <v>1</v>
+      </c>
+      <c r="ED133">
+        <v>4</v>
+      </c>
+      <c r="EE133">
+        <v>3</v>
+      </c>
+      <c r="EF133">
+        <v>1</v>
+      </c>
     </row>
-    <row r="134" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -38110,8 +40711,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA134">
+        <v>2</v>
+      </c>
+      <c r="EB134">
+        <v>1</v>
+      </c>
+      <c r="EC134">
+        <v>7</v>
+      </c>
+      <c r="ED134">
+        <v>2</v>
+      </c>
+      <c r="EE134">
+        <v>1</v>
+      </c>
+      <c r="EF134">
+        <v>7</v>
+      </c>
     </row>
-    <row r="135" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -38351,8 +40970,26 @@
         <f t="shared" si="20"/>
         <v>Y tương này cho ra loại bia sẽ thơm ngon đâm vị bia hơn.</v>
       </c>
+      <c r="EA135">
+        <v>1</v>
+      </c>
+      <c r="EB135">
+        <v>7</v>
+      </c>
+      <c r="EC135">
+        <v>2</v>
+      </c>
+      <c r="ED135">
+        <v>1</v>
+      </c>
+      <c r="EE135">
+        <v>7</v>
+      </c>
+      <c r="EF135">
+        <v>2</v>
+      </c>
     </row>
-    <row r="136" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -38596,8 +41233,26 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
+      <c r="EA136">
+        <v>5</v>
+      </c>
+      <c r="EB136">
+        <v>4</v>
+      </c>
+      <c r="EC136">
+        <v>2</v>
+      </c>
+      <c r="ED136">
+        <v>5</v>
+      </c>
+      <c r="EE136">
+        <v>4</v>
+      </c>
+      <c r="EF136">
+        <v>2</v>
+      </c>
     </row>
-    <row r="137" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -38839,8 +41494,26 @@
         <f t="shared" ref="DZ137:DZ157" si="27">IF(DT137=3,DN137,"")</f>
         <v>Ý tương độc đáo, bia có hương trái cây  làm tôi tò mò nhất</v>
       </c>
+      <c r="EA137">
+        <v>1</v>
+      </c>
+      <c r="EB137">
+        <v>5</v>
+      </c>
+      <c r="EC137">
+        <v>4</v>
+      </c>
+      <c r="ED137">
+        <v>1</v>
+      </c>
+      <c r="EE137">
+        <v>5</v>
+      </c>
+      <c r="EF137">
+        <v>4</v>
+      </c>
     </row>
-    <row r="138" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -39078,8 +41751,26 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA138">
+        <v>5</v>
+      </c>
+      <c r="EB138">
+        <v>3</v>
+      </c>
+      <c r="EC138">
+        <v>4</v>
+      </c>
+      <c r="ED138">
+        <v>5</v>
+      </c>
+      <c r="EE138">
+        <v>3</v>
+      </c>
+      <c r="EF138">
+        <v>4</v>
+      </c>
     </row>
-    <row r="139" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -39317,8 +42008,26 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA139">
+        <v>4</v>
+      </c>
+      <c r="EB139">
+        <v>7</v>
+      </c>
+      <c r="EC139">
+        <v>1</v>
+      </c>
+      <c r="ED139">
+        <v>4</v>
+      </c>
+      <c r="EE139">
+        <v>7</v>
+      </c>
+      <c r="EF139">
+        <v>1</v>
+      </c>
     </row>
-    <row r="140" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -39556,8 +42265,26 @@
         <f t="shared" si="27"/>
         <v>Vì ý tưởng công nghệ hiện đại hơn</v>
       </c>
+      <c r="EA140">
+        <v>6</v>
+      </c>
+      <c r="EB140">
+        <v>1</v>
+      </c>
+      <c r="EC140">
+        <v>5</v>
+      </c>
+      <c r="ED140">
+        <v>6</v>
+      </c>
+      <c r="EE140">
+        <v>1</v>
+      </c>
+      <c r="EF140">
+        <v>5</v>
+      </c>
     </row>
-    <row r="141" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -39795,8 +42522,26 @@
         <f t="shared" si="27"/>
         <v>Vì ý tưởng công nghệ chiết suất âm độ mới lạ hơn</v>
       </c>
+      <c r="EA141">
+        <v>6</v>
+      </c>
+      <c r="EB141">
+        <v>3</v>
+      </c>
+      <c r="EC141">
+        <v>4</v>
+      </c>
+      <c r="ED141">
+        <v>6</v>
+      </c>
+      <c r="EE141">
+        <v>3</v>
+      </c>
+      <c r="EF141">
+        <v>4</v>
+      </c>
     </row>
-    <row r="142" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -40038,8 +42783,26 @@
         <f t="shared" si="27"/>
         <v>Y tương nay co công nghệ lam lạnh âm độ bia sẽ tăng hương vị thơm ngon hơn</v>
       </c>
+      <c r="EA142">
+        <v>4</v>
+      </c>
+      <c r="EB142">
+        <v>7</v>
+      </c>
+      <c r="EC142">
+        <v>6</v>
+      </c>
+      <c r="ED142">
+        <v>4</v>
+      </c>
+      <c r="EE142">
+        <v>7</v>
+      </c>
+      <c r="EF142">
+        <v>6</v>
+      </c>
     </row>
-    <row r="143" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -40275,8 +43038,26 @@
         <f t="shared" si="27"/>
         <v>Bia  này mát lạnh, tôi thích bia sảng khoái</v>
       </c>
+      <c r="EA143">
+        <v>4</v>
+      </c>
+      <c r="EB143">
+        <v>5</v>
+      </c>
+      <c r="EC143">
+        <v>3</v>
+      </c>
+      <c r="ED143">
+        <v>4</v>
+      </c>
+      <c r="EE143">
+        <v>5</v>
+      </c>
+      <c r="EF143">
+        <v>3</v>
+      </c>
     </row>
-    <row r="144" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -40514,8 +43295,26 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA144">
+        <v>2</v>
+      </c>
+      <c r="EB144">
+        <v>3</v>
+      </c>
+      <c r="EC144">
+        <v>1</v>
+      </c>
+      <c r="ED144">
+        <v>2</v>
+      </c>
+      <c r="EE144">
+        <v>3</v>
+      </c>
+      <c r="EF144">
+        <v>1</v>
+      </c>
     </row>
-    <row r="145" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -40755,8 +43554,26 @@
         <f t="shared" si="27"/>
         <v>Vì có gâấp đôi hương vị ngon hơn</v>
       </c>
+      <c r="EA145">
+        <v>5</v>
+      </c>
+      <c r="EB145">
+        <v>1</v>
+      </c>
+      <c r="EC145">
+        <v>6</v>
+      </c>
+      <c r="ED145">
+        <v>5</v>
+      </c>
+      <c r="EE145">
+        <v>1</v>
+      </c>
+      <c r="EF145">
+        <v>6</v>
+      </c>
     </row>
-    <row r="146" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -40994,8 +43811,26 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA146">
+        <v>3</v>
+      </c>
+      <c r="EB146">
+        <v>6</v>
+      </c>
+      <c r="EC146">
+        <v>5</v>
+      </c>
+      <c r="ED146">
+        <v>3</v>
+      </c>
+      <c r="EE146">
+        <v>6</v>
+      </c>
+      <c r="EF146">
+        <v>5</v>
+      </c>
     </row>
-    <row r="147" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -41239,8 +44074,26 @@
         <f t="shared" si="27"/>
         <v>Dùng công nghệ âm độ nghe khác biệt hơn</v>
       </c>
+      <c r="EA147">
+        <v>6</v>
+      </c>
+      <c r="EB147">
+        <v>3</v>
+      </c>
+      <c r="EC147">
+        <v>5</v>
+      </c>
+      <c r="ED147">
+        <v>6</v>
+      </c>
+      <c r="EE147">
+        <v>3</v>
+      </c>
+      <c r="EF147">
+        <v>5</v>
+      </c>
     </row>
-    <row r="148" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -41478,8 +44331,26 @@
         <f t="shared" si="27"/>
         <v>Vị câu nói thu hút hơn (cảm nhận vị giác cực đỉnh) thích hơn</v>
       </c>
+      <c r="EA148">
+        <v>4</v>
+      </c>
+      <c r="EB148">
+        <v>6</v>
+      </c>
+      <c r="EC148">
+        <v>1</v>
+      </c>
+      <c r="ED148">
+        <v>4</v>
+      </c>
+      <c r="EE148">
+        <v>6</v>
+      </c>
+      <c r="EF148">
+        <v>1</v>
+      </c>
     </row>
-    <row r="149" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -41717,8 +44588,26 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA149">
+        <v>2</v>
+      </c>
+      <c r="EB149">
+        <v>6</v>
+      </c>
+      <c r="EC149">
+        <v>5</v>
+      </c>
+      <c r="ED149">
+        <v>2</v>
+      </c>
+      <c r="EE149">
+        <v>6</v>
+      </c>
+      <c r="EF149">
+        <v>5</v>
+      </c>
     </row>
-    <row r="150" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:136" x14ac:dyDescent="0.25">
       <c r="J150" s="3" t="s">
         <v>1520</v>
       </c>
@@ -41947,8 +44836,26 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA150">
+        <v>1</v>
+      </c>
+      <c r="EB150">
+        <v>5</v>
+      </c>
+      <c r="EC150">
+        <v>2</v>
+      </c>
+      <c r="ED150">
+        <v>1</v>
+      </c>
+      <c r="EE150">
+        <v>5</v>
+      </c>
+      <c r="EF150">
+        <v>2</v>
+      </c>
     </row>
-    <row r="151" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:136" x14ac:dyDescent="0.25">
       <c r="J151" s="3" t="s">
         <v>1529</v>
       </c>
@@ -42179,8 +45086,26 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA151">
+        <v>6</v>
+      </c>
+      <c r="EB151">
+        <v>3</v>
+      </c>
+      <c r="EC151">
+        <v>1</v>
+      </c>
+      <c r="ED151">
+        <v>6</v>
+      </c>
+      <c r="EE151">
+        <v>3</v>
+      </c>
+      <c r="EF151">
+        <v>1</v>
+      </c>
     </row>
-    <row r="152" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:136" x14ac:dyDescent="0.25">
       <c r="J152" s="3" t="s">
         <v>1536</v>
       </c>
@@ -42413,8 +45338,26 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA152">
+        <v>7</v>
+      </c>
+      <c r="EB152">
+        <v>4</v>
+      </c>
+      <c r="EC152">
+        <v>3</v>
+      </c>
+      <c r="ED152">
+        <v>7</v>
+      </c>
+      <c r="EE152">
+        <v>4</v>
+      </c>
+      <c r="EF152">
+        <v>3</v>
+      </c>
     </row>
-    <row r="153" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:136" x14ac:dyDescent="0.25">
       <c r="J153" s="3" t="s">
         <v>1545</v>
       </c>
@@ -42595,8 +45538,26 @@
         <f t="shared" si="27"/>
         <v>Công nghệ hiện đại hơn</v>
       </c>
+      <c r="EA153">
+        <v>6</v>
+      </c>
+      <c r="EB153">
+        <v>5</v>
+      </c>
+      <c r="EC153">
+        <v>1</v>
+      </c>
+      <c r="ED153">
+        <v>6</v>
+      </c>
+      <c r="EE153">
+        <v>5</v>
+      </c>
+      <c r="EF153">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:136" x14ac:dyDescent="0.25">
       <c r="J154" s="3" t="s">
         <v>1554</v>
       </c>
@@ -42777,8 +45738,26 @@
         <f t="shared" si="27"/>
         <v>Ấn tượng với bia âm độ có hương trái cây, sẽ thơm hơn bia thường</v>
       </c>
+      <c r="EA154">
+        <v>1</v>
+      </c>
+      <c r="EB154">
+        <v>2</v>
+      </c>
+      <c r="EC154">
+        <v>4</v>
+      </c>
+      <c r="ED154">
+        <v>1</v>
+      </c>
+      <c r="EE154">
+        <v>2</v>
+      </c>
+      <c r="EF154">
+        <v>4</v>
+      </c>
     </row>
-    <row r="155" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:136" x14ac:dyDescent="0.25">
       <c r="J155" s="3" t="s">
         <v>1562</v>
       </c>
@@ -42961,8 +45940,26 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA155">
+        <v>2</v>
+      </c>
+      <c r="EB155">
+        <v>1</v>
+      </c>
+      <c r="EC155">
+        <v>4</v>
+      </c>
+      <c r="ED155">
+        <v>2</v>
+      </c>
+      <c r="EE155">
+        <v>1</v>
+      </c>
+      <c r="EF155">
+        <v>4</v>
+      </c>
     </row>
-    <row r="156" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:136" x14ac:dyDescent="0.25">
       <c r="J156" s="3" t="s">
         <v>1571</v>
       </c>
@@ -43149,8 +46146,26 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA156">
+        <v>5</v>
+      </c>
+      <c r="EB156">
+        <v>2</v>
+      </c>
+      <c r="EC156">
+        <v>7</v>
+      </c>
+      <c r="ED156">
+        <v>5</v>
+      </c>
+      <c r="EE156">
+        <v>2</v>
+      </c>
+      <c r="EF156">
+        <v>7</v>
+      </c>
     </row>
-    <row r="157" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:136" x14ac:dyDescent="0.25">
       <c r="J157" s="3" t="s">
         <v>1580</v>
       </c>
@@ -43335,11 +46350,29 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
+      <c r="EA157">
+        <v>3</v>
+      </c>
+      <c r="EB157">
+        <v>5</v>
+      </c>
+      <c r="EC157">
+        <v>1</v>
+      </c>
+      <c r="ED157">
+        <v>3</v>
+      </c>
+      <c r="EE157">
+        <v>5</v>
+      </c>
+      <c r="EF157">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A7:DZ157" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <mergeCells count="116">
+  <autoFilter ref="A7:EF157" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="122">
     <mergeCell ref="DW5:DW7"/>
     <mergeCell ref="DX5:DX7"/>
     <mergeCell ref="DY5:DY7"/>
@@ -43406,7 +46439,6 @@
     <mergeCell ref="BA5:BA7"/>
     <mergeCell ref="BB5:BB7"/>
     <mergeCell ref="BC5:BC7"/>
-    <mergeCell ref="AT5:AT7"/>
     <mergeCell ref="AU5:AU7"/>
     <mergeCell ref="AV5:AV7"/>
     <mergeCell ref="AW5:AW7"/>
@@ -43416,8 +46448,6 @@
     <mergeCell ref="AQ5:AQ7"/>
     <mergeCell ref="AR5:AR7"/>
     <mergeCell ref="AS5:AS7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
     <mergeCell ref="AL5:AL7"/>
     <mergeCell ref="AM5:AM7"/>
     <mergeCell ref="AN5:AN7"/>
@@ -43426,6 +46456,33 @@
     <mergeCell ref="AG5:AG7"/>
     <mergeCell ref="AH5:AH7"/>
     <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AT5:AT7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="EF5:EF7"/>
+    <mergeCell ref="EA5:EA7"/>
+    <mergeCell ref="EB5:EB7"/>
+    <mergeCell ref="EC5:EC7"/>
+    <mergeCell ref="ED5:ED7"/>
+    <mergeCell ref="EE5:EE7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="T5:T7"/>
     <mergeCell ref="Z5:Z7"/>
     <mergeCell ref="AA5:AA7"/>
     <mergeCell ref="AB5:AB7"/>
@@ -43436,30 +46493,16 @@
     <mergeCell ref="W5:W7"/>
     <mergeCell ref="X5:X7"/>
     <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
   </mergeCells>
   <conditionalFormatting sqref="DN8:DN157">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EA5:EF5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/VN8413_Data.xlsx
+++ b/tests/VN8413_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/723e82af93afbbb8/Dev Area/PyPackages/packaging_dpkits/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{7580FB57-E33F-4291-AE49-1D26396487B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DF10CDE-CD9E-4F04-853E-E19A49418EE8}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{7580FB57-E33F-4291-AE49-1D26396487B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6BCB17-FF5A-45B6-81F3-5057293F71E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5093,22 +5093,22 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6810,9 +6810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EF157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DQ1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="EF8" sqref="EF8"/>
+      <selection pane="bottomLeft" activeCell="BK5" sqref="BK5:BK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6926,54 +6926,54 @@
       </c>
     </row>
     <row r="4" spans="1:136" x14ac:dyDescent="0.25">
-      <c r="BW4" s="32" t="s">
+      <c r="BW4" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="BX4" s="32"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="32"/>
-      <c r="CK4" s="32" t="s">
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="31"/>
+      <c r="CK4" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="CL4" s="32"/>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32"/>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32" t="s">
+      <c r="CL4" s="31"/>
+      <c r="CM4" s="31"/>
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="31"/>
+      <c r="CP4" s="31"/>
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="31"/>
+      <c r="CS4" s="31"/>
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="31"/>
+      <c r="CV4" s="31"/>
+      <c r="CW4" s="31"/>
+      <c r="CX4" s="31"/>
+      <c r="CY4" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="CZ4" s="32"/>
-      <c r="DA4" s="32"/>
-      <c r="DB4" s="32"/>
-      <c r="DC4" s="32"/>
-      <c r="DD4" s="32"/>
-      <c r="DE4" s="32"/>
-      <c r="DF4" s="32"/>
-      <c r="DG4" s="32"/>
-      <c r="DH4" s="32"/>
-      <c r="DI4" s="32"/>
-      <c r="DJ4" s="32"/>
-      <c r="DK4" s="32"/>
-      <c r="DL4" s="32"/>
+      <c r="CZ4" s="31"/>
+      <c r="DA4" s="31"/>
+      <c r="DB4" s="31"/>
+      <c r="DC4" s="31"/>
+      <c r="DD4" s="31"/>
+      <c r="DE4" s="31"/>
+      <c r="DF4" s="31"/>
+      <c r="DG4" s="31"/>
+      <c r="DH4" s="31"/>
+      <c r="DI4" s="31"/>
+      <c r="DJ4" s="31"/>
+      <c r="DK4" s="31"/>
+      <c r="DL4" s="31"/>
     </row>
     <row r="5" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
@@ -7231,10 +7231,10 @@
       <c r="CK5" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="CL5" s="31" t="s">
+      <c r="CL5" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="CM5" s="31"/>
+      <c r="CM5" s="29"/>
       <c r="CN5" s="30" t="s">
         <v>132</v>
       </c>
@@ -7255,10 +7255,10 @@
         <v>138</v>
       </c>
       <c r="CU5" s="30"/>
-      <c r="CV5" s="31" t="s">
+      <c r="CV5" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="CW5" s="31"/>
+      <c r="CW5" s="29"/>
       <c r="CX5" s="30" t="s">
         <v>140</v>
       </c>
@@ -7269,10 +7269,10 @@
         <v>142</v>
       </c>
       <c r="DA5" s="30"/>
-      <c r="DB5" s="31" t="s">
+      <c r="DB5" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="DC5" s="31"/>
+      <c r="DC5" s="29"/>
       <c r="DD5" s="30" t="s">
         <v>144</v>
       </c>
@@ -7289,20 +7289,20 @@
         <v>148</v>
       </c>
       <c r="DI5" s="30"/>
-      <c r="DJ5" s="31" t="s">
+      <c r="DJ5" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="DK5" s="31"/>
+      <c r="DK5" s="29"/>
       <c r="DL5" s="30" t="s">
         <v>150</v>
       </c>
       <c r="DM5" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="DN5" s="31" t="s">
+      <c r="DN5" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="DO5" s="31"/>
+      <c r="DO5" s="29"/>
       <c r="DP5" s="30" t="s">
         <v>218</v>
       </c>
@@ -7311,43 +7311,43 @@
       </c>
       <c r="DR5" s="30"/>
       <c r="DS5" s="30"/>
-      <c r="DT5" s="31" t="s">
+      <c r="DT5" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="DU5" s="33" t="s">
+      <c r="DU5" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="DV5" s="33" t="s">
+      <c r="DV5" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="DW5" s="33" t="s">
+      <c r="DW5" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="DX5" s="33" t="s">
+      <c r="DX5" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="DY5" s="33" t="s">
+      <c r="DY5" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="DZ5" s="33" t="s">
+      <c r="DZ5" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="EA5" s="29" t="s">
+      <c r="EA5" s="33" t="s">
         <v>1620</v>
       </c>
-      <c r="EB5" s="29" t="s">
+      <c r="EB5" s="33" t="s">
         <v>1621</v>
       </c>
-      <c r="EC5" s="29" t="s">
+      <c r="EC5" s="33" t="s">
         <v>1622</v>
       </c>
-      <c r="ED5" s="28" t="s">
+      <c r="ED5" s="32" t="s">
         <v>1623</v>
       </c>
-      <c r="EE5" s="28" t="s">
+      <c r="EE5" s="32" t="s">
         <v>1624</v>
       </c>
-      <c r="EF5" s="28" t="s">
+      <c r="EF5" s="32" t="s">
         <v>1625</v>
       </c>
     </row>
@@ -7441,8 +7441,8 @@
       <c r="CI6" s="30"/>
       <c r="CJ6" s="30"/>
       <c r="CK6" s="30"/>
-      <c r="CL6" s="31"/>
-      <c r="CM6" s="31"/>
+      <c r="CL6" s="29"/>
+      <c r="CM6" s="29"/>
       <c r="CN6" s="30"/>
       <c r="CO6" s="30"/>
       <c r="CP6" s="30"/>
@@ -7451,43 +7451,43 @@
       <c r="CS6" s="30"/>
       <c r="CT6" s="30"/>
       <c r="CU6" s="30"/>
-      <c r="CV6" s="31"/>
-      <c r="CW6" s="31"/>
+      <c r="CV6" s="29"/>
+      <c r="CW6" s="29"/>
       <c r="CX6" s="30"/>
       <c r="CY6" s="30"/>
       <c r="CZ6" s="30"/>
       <c r="DA6" s="30"/>
-      <c r="DB6" s="31"/>
-      <c r="DC6" s="31"/>
+      <c r="DB6" s="29"/>
+      <c r="DC6" s="29"/>
       <c r="DD6" s="30"/>
       <c r="DE6" s="30"/>
       <c r="DF6" s="30"/>
       <c r="DG6" s="30"/>
       <c r="DH6" s="30"/>
       <c r="DI6" s="30"/>
-      <c r="DJ6" s="31"/>
-      <c r="DK6" s="31"/>
+      <c r="DJ6" s="29"/>
+      <c r="DK6" s="29"/>
       <c r="DL6" s="30"/>
       <c r="DM6" s="30"/>
-      <c r="DN6" s="31"/>
-      <c r="DO6" s="31"/>
+      <c r="DN6" s="29"/>
+      <c r="DO6" s="29"/>
       <c r="DP6" s="30"/>
       <c r="DQ6" s="30"/>
       <c r="DR6" s="30"/>
       <c r="DS6" s="30"/>
-      <c r="DT6" s="31"/>
-      <c r="DU6" s="31"/>
-      <c r="DV6" s="31"/>
-      <c r="DW6" s="31"/>
-      <c r="DX6" s="31"/>
-      <c r="DY6" s="31"/>
-      <c r="DZ6" s="31"/>
-      <c r="EA6" s="29"/>
-      <c r="EB6" s="29"/>
-      <c r="EC6" s="29"/>
-      <c r="ED6" s="28"/>
-      <c r="EE6" s="28"/>
-      <c r="EF6" s="28"/>
+      <c r="DT6" s="29"/>
+      <c r="DU6" s="29"/>
+      <c r="DV6" s="29"/>
+      <c r="DW6" s="29"/>
+      <c r="DX6" s="29"/>
+      <c r="DY6" s="29"/>
+      <c r="DZ6" s="29"/>
+      <c r="EA6" s="33"/>
+      <c r="EB6" s="33"/>
+      <c r="EC6" s="33"/>
+      <c r="ED6" s="32"/>
+      <c r="EE6" s="32"/>
+      <c r="EF6" s="32"/>
     </row>
     <row r="7" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -7681,19 +7681,19 @@
       <c r="DS7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="DT7" s="31"/>
-      <c r="DU7" s="31"/>
-      <c r="DV7" s="31"/>
-      <c r="DW7" s="31"/>
-      <c r="DX7" s="31"/>
-      <c r="DY7" s="31"/>
-      <c r="DZ7" s="31"/>
-      <c r="EA7" s="29"/>
-      <c r="EB7" s="29"/>
-      <c r="EC7" s="29"/>
-      <c r="ED7" s="28"/>
-      <c r="EE7" s="28"/>
-      <c r="EF7" s="28"/>
+      <c r="DT7" s="29"/>
+      <c r="DU7" s="29"/>
+      <c r="DV7" s="29"/>
+      <c r="DW7" s="29"/>
+      <c r="DX7" s="29"/>
+      <c r="DY7" s="29"/>
+      <c r="DZ7" s="29"/>
+      <c r="EA7" s="33"/>
+      <c r="EB7" s="33"/>
+      <c r="EC7" s="33"/>
+      <c r="ED7" s="32"/>
+      <c r="EE7" s="32"/>
+      <c r="EF7" s="32"/>
     </row>
     <row r="8" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -7774,9 +7774,7 @@
       <c r="BL8" s="19">
         <v>3</v>
       </c>
-      <c r="BM8" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM8" s="22"/>
       <c r="BN8" s="19">
         <v>1</v>
       </c>
@@ -8033,9 +8031,7 @@
       <c r="BL9" s="19">
         <v>3</v>
       </c>
-      <c r="BM9" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM9" s="22"/>
       <c r="BN9" s="19">
         <v>1</v>
       </c>
@@ -8296,9 +8292,7 @@
       <c r="BL10" s="19">
         <v>1</v>
       </c>
-      <c r="BM10" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM10" s="22"/>
       <c r="BN10" s="19">
         <v>1</v>
       </c>
@@ -9079,9 +9073,7 @@
       <c r="BL13" s="19">
         <v>3</v>
       </c>
-      <c r="BM13" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM13" s="22"/>
       <c r="BN13" s="19">
         <v>1</v>
       </c>
@@ -9593,9 +9585,7 @@
       <c r="BL15" s="19">
         <v>2</v>
       </c>
-      <c r="BM15" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM15" s="22"/>
       <c r="BN15" s="19">
         <v>1</v>
       </c>
@@ -9854,9 +9844,7 @@
       <c r="BL16" s="19">
         <v>3</v>
       </c>
-      <c r="BM16" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM16" s="22"/>
       <c r="BN16" s="19">
         <v>1</v>
       </c>
@@ -10117,9 +10105,7 @@
       <c r="BL17" s="19">
         <v>1</v>
       </c>
-      <c r="BM17" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM17" s="22"/>
       <c r="BN17" s="19">
         <v>1</v>
       </c>
@@ -10374,9 +10360,7 @@
       <c r="BL18" s="19">
         <v>2</v>
       </c>
-      <c r="BM18" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM18" s="22"/>
       <c r="BN18" s="19">
         <v>1</v>
       </c>
@@ -10629,9 +10613,7 @@
       <c r="BL19" s="19">
         <v>1</v>
       </c>
-      <c r="BM19" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM19" s="22"/>
       <c r="BN19" s="19">
         <v>1</v>
       </c>
@@ -10890,9 +10872,7 @@
       <c r="BL20" s="19">
         <v>3</v>
       </c>
-      <c r="BM20" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM20" s="22"/>
       <c r="BN20" s="19">
         <v>1</v>
       </c>
@@ -11145,9 +11125,7 @@
       <c r="BL21" s="19">
         <v>1</v>
       </c>
-      <c r="BM21" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM21" s="22"/>
       <c r="BN21" s="19">
         <v>1</v>
       </c>
@@ -11406,9 +11384,7 @@
       <c r="BL22" s="19">
         <v>3</v>
       </c>
-      <c r="BM22" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM22" s="22"/>
       <c r="BN22" s="19">
         <v>1</v>
       </c>
@@ -11669,9 +11645,7 @@
       <c r="BL23" s="19">
         <v>3</v>
       </c>
-      <c r="BM23" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM23" s="22"/>
       <c r="BN23" s="19">
         <v>1</v>
       </c>
@@ -11932,9 +11906,7 @@
       <c r="BL24" s="19">
         <v>2</v>
       </c>
-      <c r="BM24" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM24" s="22"/>
       <c r="BN24" s="19">
         <v>1</v>
       </c>
@@ -12189,9 +12161,7 @@
       <c r="BL25" s="19">
         <v>3</v>
       </c>
-      <c r="BM25" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM25" s="22"/>
       <c r="BN25" s="19">
         <v>1</v>
       </c>
@@ -12448,9 +12418,7 @@
       <c r="BL26" s="19">
         <v>3</v>
       </c>
-      <c r="BM26" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM26" s="22"/>
       <c r="BN26" s="19">
         <v>1</v>
       </c>
@@ -12705,9 +12673,7 @@
       <c r="BL27" s="19">
         <v>1</v>
       </c>
-      <c r="BM27" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM27" s="22"/>
       <c r="BN27" s="19">
         <v>1</v>
       </c>
@@ -13231,9 +13197,7 @@
       <c r="BL29" s="19">
         <v>3</v>
       </c>
-      <c r="BM29" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM29" s="22"/>
       <c r="BN29" s="19">
         <v>1</v>
       </c>
@@ -13492,9 +13456,7 @@
       <c r="BL30" s="19">
         <v>1</v>
       </c>
-      <c r="BM30" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM30" s="22"/>
       <c r="BN30" s="19">
         <v>1</v>
       </c>
@@ -13751,9 +13713,7 @@
       <c r="BL31" s="19">
         <v>2</v>
       </c>
-      <c r="BM31" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM31" s="22"/>
       <c r="BN31" s="19">
         <v>1</v>
       </c>
@@ -14014,9 +13974,7 @@
       <c r="BL32" s="19">
         <v>2</v>
       </c>
-      <c r="BM32" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM32" s="22"/>
       <c r="BN32" s="19">
         <v>1</v>
       </c>
@@ -14795,9 +14753,7 @@
       <c r="BL35" s="19">
         <v>2</v>
       </c>
-      <c r="BM35" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM35" s="22"/>
       <c r="BN35" s="19">
         <v>1</v>
       </c>
@@ -15058,9 +15014,7 @@
       <c r="BL36" s="19">
         <v>2</v>
       </c>
-      <c r="BM36" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM36" s="22"/>
       <c r="BN36" s="19">
         <v>1</v>
       </c>
@@ -15321,9 +15275,7 @@
       <c r="BL37" s="19">
         <v>3</v>
       </c>
-      <c r="BM37" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM37" s="22"/>
       <c r="BN37" s="19">
         <v>1</v>
       </c>
@@ -15841,9 +15793,7 @@
       <c r="BL39" s="19">
         <v>3</v>
       </c>
-      <c r="BM39" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM39" s="22"/>
       <c r="BN39" s="19">
         <v>1</v>
       </c>
@@ -16104,9 +16054,7 @@
       <c r="BL40" s="19">
         <v>1</v>
       </c>
-      <c r="BM40" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM40" s="22"/>
       <c r="BN40" s="19">
         <v>1</v>
       </c>
@@ -16365,9 +16313,7 @@
       <c r="BL41" s="19">
         <v>2</v>
       </c>
-      <c r="BM41" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM41" s="22"/>
       <c r="BN41" s="19">
         <v>1</v>
       </c>
@@ -16628,9 +16574,7 @@
       <c r="BL42" s="19">
         <v>3</v>
       </c>
-      <c r="BM42" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM42" s="22"/>
       <c r="BN42" s="19">
         <v>1</v>
       </c>
@@ -16891,9 +16835,7 @@
       <c r="BL43" s="19">
         <v>1</v>
       </c>
-      <c r="BM43" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM43" s="22"/>
       <c r="BN43" s="19">
         <v>1</v>
       </c>
@@ -17150,9 +17092,7 @@
       <c r="BL44" s="19">
         <v>2</v>
       </c>
-      <c r="BM44" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM44" s="22"/>
       <c r="BN44" s="19">
         <v>1</v>
       </c>
@@ -17413,9 +17353,7 @@
       <c r="BL45" s="19">
         <v>2</v>
       </c>
-      <c r="BM45" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM45" s="22"/>
       <c r="BN45" s="19">
         <v>1</v>
       </c>
@@ -17674,9 +17612,7 @@
       <c r="BL46" s="19">
         <v>3</v>
       </c>
-      <c r="BM46" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM46" s="22"/>
       <c r="BN46" s="19">
         <v>1</v>
       </c>
@@ -17931,9 +17867,7 @@
       <c r="BL47" s="19">
         <v>2</v>
       </c>
-      <c r="BM47" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM47" s="22"/>
       <c r="BN47" s="19">
         <v>1</v>
       </c>
@@ -18190,9 +18124,7 @@
       <c r="BL48" s="19">
         <v>2</v>
       </c>
-      <c r="BM48" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM48" s="22"/>
       <c r="BN48" s="19">
         <v>1</v>
       </c>
@@ -18451,9 +18383,7 @@
       <c r="BL49" s="19">
         <v>1</v>
       </c>
-      <c r="BM49" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM49" s="22"/>
       <c r="BN49" s="19">
         <v>1</v>
       </c>
@@ -18710,9 +18640,7 @@
       <c r="BL50" s="19">
         <v>3</v>
       </c>
-      <c r="BM50" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM50" s="22"/>
       <c r="BN50" s="19">
         <v>1</v>
       </c>
@@ -18973,9 +18901,7 @@
       <c r="BL51" s="19">
         <v>2</v>
       </c>
-      <c r="BM51" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM51" s="22"/>
       <c r="BN51" s="19">
         <v>1</v>
       </c>
@@ -19232,9 +19158,7 @@
       <c r="BL52" s="19">
         <v>2</v>
       </c>
-      <c r="BM52" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM52" s="22"/>
       <c r="BN52" s="19">
         <v>1</v>
       </c>
@@ -19495,9 +19419,7 @@
       <c r="BL53" s="19">
         <v>3</v>
       </c>
-      <c r="BM53" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM53" s="22"/>
       <c r="BN53" s="19">
         <v>1</v>
       </c>
@@ -19758,9 +19680,7 @@
       <c r="BL54" s="19">
         <v>3</v>
       </c>
-      <c r="BM54" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM54" s="22"/>
       <c r="BN54" s="19">
         <v>1</v>
       </c>
@@ -20019,9 +19939,7 @@
       <c r="BL55" s="19">
         <v>1</v>
       </c>
-      <c r="BM55" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM55" s="22"/>
       <c r="BN55" s="19">
         <v>1</v>
       </c>
@@ -20282,9 +20200,7 @@
       <c r="BL56" s="19">
         <v>1</v>
       </c>
-      <c r="BM56" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM56" s="22"/>
       <c r="BN56" s="19">
         <v>1</v>
       </c>
@@ -20543,9 +20459,7 @@
       <c r="BL57" s="19">
         <v>3</v>
       </c>
-      <c r="BM57" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM57" s="22"/>
       <c r="BN57" s="19">
         <v>1</v>
       </c>
@@ -20806,9 +20720,7 @@
       <c r="BL58" s="19">
         <v>2</v>
       </c>
-      <c r="BM58" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM58" s="22"/>
       <c r="BN58" s="19">
         <v>1</v>
       </c>
@@ -21069,9 +20981,7 @@
       <c r="BL59" s="19">
         <v>3</v>
       </c>
-      <c r="BM59" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM59" s="22"/>
       <c r="BN59" s="19">
         <v>1</v>
       </c>
@@ -21332,9 +21242,7 @@
       <c r="BL60" s="19">
         <v>2</v>
       </c>
-      <c r="BM60" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM60" s="22"/>
       <c r="BN60" s="19">
         <v>1</v>
       </c>
@@ -21593,9 +21501,7 @@
       <c r="BL61" s="19">
         <v>3</v>
       </c>
-      <c r="BM61" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM61" s="22"/>
       <c r="BN61" s="19">
         <v>1</v>
       </c>
@@ -21856,9 +21762,7 @@
       <c r="BL62" s="19">
         <v>1</v>
       </c>
-      <c r="BM62" s="19">
-        <v>2</v>
-      </c>
+      <c r="BM62" s="22"/>
       <c r="BN62" s="19">
         <v>1</v>
       </c>
@@ -22119,9 +22023,7 @@
       <c r="BL63" s="3">
         <v>3</v>
       </c>
-      <c r="BM63" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM63" s="23"/>
       <c r="BN63" s="3">
         <v>1</v>
       </c>
@@ -22380,9 +22282,7 @@
       <c r="BL64" s="3">
         <v>2</v>
       </c>
-      <c r="BM64" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM64" s="23"/>
       <c r="BN64" s="3">
         <v>1</v>
       </c>
@@ -22643,9 +22543,7 @@
       <c r="BL65" s="3">
         <v>2</v>
       </c>
-      <c r="BM65" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM65" s="23"/>
       <c r="BN65" s="3">
         <v>1</v>
       </c>
@@ -22906,9 +22804,7 @@
       <c r="BL66" s="3">
         <v>3</v>
       </c>
-      <c r="BM66" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM66" s="23"/>
       <c r="BN66" s="3">
         <v>1</v>
       </c>
@@ -23169,9 +23065,7 @@
       <c r="BL67" s="3">
         <v>3</v>
       </c>
-      <c r="BM67" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM67" s="23"/>
       <c r="BN67" s="3">
         <v>1</v>
       </c>
@@ -23689,9 +23583,7 @@
       <c r="BL69" s="3">
         <v>2</v>
       </c>
-      <c r="BM69" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM69" s="23"/>
       <c r="BN69" s="3">
         <v>1</v>
       </c>
@@ -23946,9 +23838,7 @@
       <c r="BL70" s="3">
         <v>1</v>
       </c>
-      <c r="BM70" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM70" s="23"/>
       <c r="BN70" s="3">
         <v>1</v>
       </c>
@@ -24466,9 +24356,7 @@
       <c r="BL72" s="3">
         <v>3</v>
       </c>
-      <c r="BM72" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM72" s="23"/>
       <c r="BN72" s="3">
         <v>1</v>
       </c>
@@ -24727,9 +24615,7 @@
       <c r="BL73" s="3">
         <v>1</v>
       </c>
-      <c r="BM73" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM73" s="23"/>
       <c r="BN73" s="3">
         <v>1</v>
       </c>
@@ -24990,9 +24876,7 @@
       <c r="BL74" s="3">
         <v>3</v>
       </c>
-      <c r="BM74" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM74" s="23"/>
       <c r="BN74" s="3">
         <v>1</v>
       </c>
@@ -25245,9 +25129,7 @@
       <c r="BL75" s="3">
         <v>3</v>
       </c>
-      <c r="BM75" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM75" s="23"/>
       <c r="BN75" s="3">
         <v>1</v>
       </c>
@@ -25767,9 +25649,7 @@
       <c r="BL77" s="3">
         <v>1</v>
       </c>
-      <c r="BM77" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM77" s="23"/>
       <c r="BN77" s="3">
         <v>1</v>
       </c>
@@ -26030,9 +25910,7 @@
       <c r="BL78" s="3">
         <v>1</v>
       </c>
-      <c r="BM78" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM78" s="23"/>
       <c r="BN78" s="3">
         <v>1</v>
       </c>
@@ -26293,9 +26171,7 @@
       <c r="BL79" s="3">
         <v>3</v>
       </c>
-      <c r="BM79" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM79" s="23"/>
       <c r="BN79" s="3">
         <v>1</v>
       </c>
@@ -26817,9 +26693,7 @@
       <c r="BL81" s="3">
         <v>1</v>
       </c>
-      <c r="BM81" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM81" s="23"/>
       <c r="BN81" s="3">
         <v>1</v>
       </c>
@@ -27857,9 +27731,7 @@
       <c r="BL85" s="3">
         <v>2</v>
       </c>
-      <c r="BM85" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM85" s="23"/>
       <c r="BN85" s="3">
         <v>1</v>
       </c>
@@ -28116,9 +27988,7 @@
       <c r="BL86" s="3">
         <v>2</v>
       </c>
-      <c r="BM86" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM86" s="23"/>
       <c r="BN86" s="3">
         <v>1</v>
       </c>
@@ -28379,9 +28249,7 @@
       <c r="BL87" s="3">
         <v>3</v>
       </c>
-      <c r="BM87" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM87" s="23"/>
       <c r="BN87" s="3">
         <v>1</v>
       </c>
@@ -28893,9 +28761,7 @@
       <c r="BL89" s="3">
         <v>2</v>
       </c>
-      <c r="BM89" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM89" s="23"/>
       <c r="BN89" s="3">
         <v>1</v>
       </c>
@@ -29674,9 +29540,7 @@
       <c r="BL92" s="3">
         <v>2</v>
       </c>
-      <c r="BM92" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM92" s="23"/>
       <c r="BN92" s="3">
         <v>1</v>
       </c>
@@ -30453,9 +30317,7 @@
       <c r="BL95" s="3">
         <v>2</v>
       </c>
-      <c r="BM95" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM95" s="23"/>
       <c r="BN95" s="3">
         <v>1</v>
       </c>
@@ -30971,9 +30833,7 @@
       <c r="BL97" s="3">
         <v>3</v>
       </c>
-      <c r="BM97" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM97" s="23"/>
       <c r="BN97" s="3">
         <v>1</v>
       </c>
@@ -37436,9 +37296,7 @@
       <c r="BL122" s="3">
         <v>2</v>
       </c>
-      <c r="BM122" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM122" s="23"/>
       <c r="BN122" s="3">
         <v>1</v>
       </c>
@@ -37954,9 +37812,7 @@
       <c r="BL124" s="3">
         <v>3</v>
       </c>
-      <c r="BM124" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM124" s="23"/>
       <c r="BN124" s="3">
         <v>1</v>
       </c>
@@ -41068,9 +40924,7 @@
       <c r="BL136" s="3">
         <v>1</v>
       </c>
-      <c r="BM136" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM136" s="23"/>
       <c r="BN136" s="3">
         <v>1</v>
       </c>
@@ -42881,9 +42735,7 @@
       <c r="BL143" s="3">
         <v>1</v>
       </c>
-      <c r="BM143" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM143" s="23"/>
       <c r="BN143" s="3">
         <v>1</v>
       </c>
@@ -43909,9 +43761,7 @@
       <c r="BL147" s="3">
         <v>2</v>
       </c>
-      <c r="BM147" s="3">
-        <v>2</v>
-      </c>
+      <c r="BM147" s="23"/>
       <c r="BN147" s="3">
         <v>1</v>
       </c>
@@ -46373,15 +46223,95 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A7:EF157" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="122">
-    <mergeCell ref="DW5:DW7"/>
-    <mergeCell ref="DX5:DX7"/>
-    <mergeCell ref="DY5:DY7"/>
-    <mergeCell ref="DZ5:DZ7"/>
-    <mergeCell ref="DP5:DP6"/>
-    <mergeCell ref="DQ5:DS6"/>
-    <mergeCell ref="DT5:DT7"/>
-    <mergeCell ref="DU5:DU7"/>
-    <mergeCell ref="DV5:DV7"/>
+    <mergeCell ref="EF5:EF7"/>
+    <mergeCell ref="EA5:EA7"/>
+    <mergeCell ref="EB5:EB7"/>
+    <mergeCell ref="EC5:EC7"/>
+    <mergeCell ref="ED5:ED7"/>
+    <mergeCell ref="EE5:EE7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AM5:AM7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AT5:AT7"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AX5:AX7"/>
+    <mergeCell ref="AO5:AO7"/>
+    <mergeCell ref="AP5:AP7"/>
+    <mergeCell ref="AQ5:AQ7"/>
+    <mergeCell ref="AR5:AR7"/>
+    <mergeCell ref="AS5:AS7"/>
+    <mergeCell ref="BD5:BE6"/>
+    <mergeCell ref="BF5:BG6"/>
+    <mergeCell ref="BH5:BH7"/>
+    <mergeCell ref="BI5:BI7"/>
+    <mergeCell ref="BJ5:BJ7"/>
+    <mergeCell ref="AY5:AY7"/>
+    <mergeCell ref="AZ5:AZ7"/>
+    <mergeCell ref="BA5:BA7"/>
+    <mergeCell ref="BB5:BB7"/>
+    <mergeCell ref="BC5:BC7"/>
+    <mergeCell ref="BP5:BP7"/>
+    <mergeCell ref="BQ5:BQ7"/>
+    <mergeCell ref="BR5:BR7"/>
+    <mergeCell ref="BS5:BS7"/>
+    <mergeCell ref="BT5:BT7"/>
+    <mergeCell ref="BK5:BK7"/>
+    <mergeCell ref="BL5:BL7"/>
+    <mergeCell ref="BM5:BM7"/>
+    <mergeCell ref="BN5:BN7"/>
+    <mergeCell ref="BO5:BO7"/>
+    <mergeCell ref="CK5:CK7"/>
+    <mergeCell ref="CL5:CM6"/>
+    <mergeCell ref="CN5:CO6"/>
+    <mergeCell ref="CB5:CB7"/>
+    <mergeCell ref="CC5:CC7"/>
+    <mergeCell ref="CD5:CD7"/>
+    <mergeCell ref="CE5:CE7"/>
+    <mergeCell ref="CF5:CG6"/>
+    <mergeCell ref="BU5:BU7"/>
+    <mergeCell ref="BV5:BV7"/>
+    <mergeCell ref="BW5:BW7"/>
+    <mergeCell ref="BX5:BY6"/>
+    <mergeCell ref="BZ5:CA6"/>
     <mergeCell ref="DJ5:DK6"/>
     <mergeCell ref="DL5:DL7"/>
     <mergeCell ref="DM5:DM7"/>
@@ -46406,95 +46336,15 @@
     <mergeCell ref="CT5:CU6"/>
     <mergeCell ref="CH5:CI6"/>
     <mergeCell ref="CJ5:CJ7"/>
-    <mergeCell ref="CK5:CK7"/>
-    <mergeCell ref="CL5:CM6"/>
-    <mergeCell ref="CN5:CO6"/>
-    <mergeCell ref="CB5:CB7"/>
-    <mergeCell ref="CC5:CC7"/>
-    <mergeCell ref="CD5:CD7"/>
-    <mergeCell ref="CE5:CE7"/>
-    <mergeCell ref="CF5:CG6"/>
-    <mergeCell ref="BU5:BU7"/>
-    <mergeCell ref="BV5:BV7"/>
-    <mergeCell ref="BW5:BW7"/>
-    <mergeCell ref="BX5:BY6"/>
-    <mergeCell ref="BZ5:CA6"/>
-    <mergeCell ref="BP5:BP7"/>
-    <mergeCell ref="BQ5:BQ7"/>
-    <mergeCell ref="BR5:BR7"/>
-    <mergeCell ref="BS5:BS7"/>
-    <mergeCell ref="BT5:BT7"/>
-    <mergeCell ref="BK5:BK7"/>
-    <mergeCell ref="BL5:BL7"/>
-    <mergeCell ref="BM5:BM7"/>
-    <mergeCell ref="BN5:BN7"/>
-    <mergeCell ref="BO5:BO7"/>
-    <mergeCell ref="BD5:BE6"/>
-    <mergeCell ref="BF5:BG6"/>
-    <mergeCell ref="BH5:BH7"/>
-    <mergeCell ref="BI5:BI7"/>
-    <mergeCell ref="BJ5:BJ7"/>
-    <mergeCell ref="AY5:AY7"/>
-    <mergeCell ref="AZ5:AZ7"/>
-    <mergeCell ref="BA5:BA7"/>
-    <mergeCell ref="BB5:BB7"/>
-    <mergeCell ref="BC5:BC7"/>
-    <mergeCell ref="AU5:AU7"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="AX5:AX7"/>
-    <mergeCell ref="AO5:AO7"/>
-    <mergeCell ref="AP5:AP7"/>
-    <mergeCell ref="AQ5:AQ7"/>
-    <mergeCell ref="AR5:AR7"/>
-    <mergeCell ref="AS5:AS7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AM5:AM7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AT5:AT7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="EF5:EF7"/>
-    <mergeCell ref="EA5:EA7"/>
-    <mergeCell ref="EB5:EB7"/>
-    <mergeCell ref="EC5:EC7"/>
-    <mergeCell ref="ED5:ED7"/>
-    <mergeCell ref="EE5:EE7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="DW5:DW7"/>
+    <mergeCell ref="DX5:DX7"/>
+    <mergeCell ref="DY5:DY7"/>
+    <mergeCell ref="DZ5:DZ7"/>
+    <mergeCell ref="DP5:DP6"/>
+    <mergeCell ref="DQ5:DS6"/>
+    <mergeCell ref="DT5:DT7"/>
+    <mergeCell ref="DU5:DU7"/>
+    <mergeCell ref="DV5:DV7"/>
   </mergeCells>
   <conditionalFormatting sqref="DN8:DN157">
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>

--- a/tests/VN8413_Data.xlsx
+++ b/tests/VN8413_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{7580FB57-E33F-4291-AE49-1D26396487B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6BCB17-FF5A-45B6-81F3-5057293F71E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="1" r:id="rId1"/>
@@ -5093,22 +5093,22 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5448,11 +5448,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6810,7 +6810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EF157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+    <sheetView topLeftCell="BD1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BK5" sqref="BK5:BK7"/>
     </sheetView>
@@ -6926,54 +6926,54 @@
       </c>
     </row>
     <row r="4" spans="1:136" x14ac:dyDescent="0.25">
-      <c r="BW4" s="31" t="s">
+      <c r="BW4" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="31"/>
-      <c r="CK4" s="31" t="s">
+      <c r="BX4" s="32"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="CL4" s="31"/>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="31"/>
-      <c r="CO4" s="31"/>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="31"/>
-      <c r="CR4" s="31"/>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="31"/>
-      <c r="CU4" s="31"/>
-      <c r="CV4" s="31"/>
-      <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
-      <c r="CY4" s="31" t="s">
+      <c r="CL4" s="32"/>
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="CZ4" s="31"/>
-      <c r="DA4" s="31"/>
-      <c r="DB4" s="31"/>
-      <c r="DC4" s="31"/>
-      <c r="DD4" s="31"/>
-      <c r="DE4" s="31"/>
-      <c r="DF4" s="31"/>
-      <c r="DG4" s="31"/>
-      <c r="DH4" s="31"/>
-      <c r="DI4" s="31"/>
-      <c r="DJ4" s="31"/>
-      <c r="DK4" s="31"/>
-      <c r="DL4" s="31"/>
+      <c r="CZ4" s="32"/>
+      <c r="DA4" s="32"/>
+      <c r="DB4" s="32"/>
+      <c r="DC4" s="32"/>
+      <c r="DD4" s="32"/>
+      <c r="DE4" s="32"/>
+      <c r="DF4" s="32"/>
+      <c r="DG4" s="32"/>
+      <c r="DH4" s="32"/>
+      <c r="DI4" s="32"/>
+      <c r="DJ4" s="32"/>
+      <c r="DK4" s="32"/>
+      <c r="DL4" s="32"/>
     </row>
     <row r="5" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
@@ -7231,10 +7231,10 @@
       <c r="CK5" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="CL5" s="29" t="s">
+      <c r="CL5" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="CM5" s="29"/>
+      <c r="CM5" s="31"/>
       <c r="CN5" s="30" t="s">
         <v>132</v>
       </c>
@@ -7255,10 +7255,10 @@
         <v>138</v>
       </c>
       <c r="CU5" s="30"/>
-      <c r="CV5" s="29" t="s">
+      <c r="CV5" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="CW5" s="29"/>
+      <c r="CW5" s="31"/>
       <c r="CX5" s="30" t="s">
         <v>140</v>
       </c>
@@ -7269,10 +7269,10 @@
         <v>142</v>
       </c>
       <c r="DA5" s="30"/>
-      <c r="DB5" s="29" t="s">
+      <c r="DB5" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="DC5" s="29"/>
+      <c r="DC5" s="31"/>
       <c r="DD5" s="30" t="s">
         <v>144</v>
       </c>
@@ -7289,20 +7289,20 @@
         <v>148</v>
       </c>
       <c r="DI5" s="30"/>
-      <c r="DJ5" s="29" t="s">
+      <c r="DJ5" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="DK5" s="29"/>
+      <c r="DK5" s="31"/>
       <c r="DL5" s="30" t="s">
         <v>150</v>
       </c>
       <c r="DM5" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="DN5" s="29" t="s">
+      <c r="DN5" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="DO5" s="29"/>
+      <c r="DO5" s="31"/>
       <c r="DP5" s="30" t="s">
         <v>218</v>
       </c>
@@ -7311,43 +7311,43 @@
       </c>
       <c r="DR5" s="30"/>
       <c r="DS5" s="30"/>
-      <c r="DT5" s="29" t="s">
+      <c r="DT5" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="DU5" s="28" t="s">
+      <c r="DU5" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="DV5" s="28" t="s">
+      <c r="DV5" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="DW5" s="28" t="s">
+      <c r="DW5" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="DX5" s="28" t="s">
+      <c r="DX5" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="DY5" s="28" t="s">
+      <c r="DY5" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="DZ5" s="28" t="s">
+      <c r="DZ5" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="EA5" s="33" t="s">
+      <c r="EA5" s="29" t="s">
         <v>1620</v>
       </c>
-      <c r="EB5" s="33" t="s">
+      <c r="EB5" s="29" t="s">
         <v>1621</v>
       </c>
-      <c r="EC5" s="33" t="s">
+      <c r="EC5" s="29" t="s">
         <v>1622</v>
       </c>
-      <c r="ED5" s="32" t="s">
+      <c r="ED5" s="28" t="s">
         <v>1623</v>
       </c>
-      <c r="EE5" s="32" t="s">
+      <c r="EE5" s="28" t="s">
         <v>1624</v>
       </c>
-      <c r="EF5" s="32" t="s">
+      <c r="EF5" s="28" t="s">
         <v>1625</v>
       </c>
     </row>
@@ -7441,8 +7441,8 @@
       <c r="CI6" s="30"/>
       <c r="CJ6" s="30"/>
       <c r="CK6" s="30"/>
-      <c r="CL6" s="29"/>
-      <c r="CM6" s="29"/>
+      <c r="CL6" s="31"/>
+      <c r="CM6" s="31"/>
       <c r="CN6" s="30"/>
       <c r="CO6" s="30"/>
       <c r="CP6" s="30"/>
@@ -7451,43 +7451,43 @@
       <c r="CS6" s="30"/>
       <c r="CT6" s="30"/>
       <c r="CU6" s="30"/>
-      <c r="CV6" s="29"/>
-      <c r="CW6" s="29"/>
+      <c r="CV6" s="31"/>
+      <c r="CW6" s="31"/>
       <c r="CX6" s="30"/>
       <c r="CY6" s="30"/>
       <c r="CZ6" s="30"/>
       <c r="DA6" s="30"/>
-      <c r="DB6" s="29"/>
-      <c r="DC6" s="29"/>
+      <c r="DB6" s="31"/>
+      <c r="DC6" s="31"/>
       <c r="DD6" s="30"/>
       <c r="DE6" s="30"/>
       <c r="DF6" s="30"/>
       <c r="DG6" s="30"/>
       <c r="DH6" s="30"/>
       <c r="DI6" s="30"/>
-      <c r="DJ6" s="29"/>
-      <c r="DK6" s="29"/>
+      <c r="DJ6" s="31"/>
+      <c r="DK6" s="31"/>
       <c r="DL6" s="30"/>
       <c r="DM6" s="30"/>
-      <c r="DN6" s="29"/>
-      <c r="DO6" s="29"/>
+      <c r="DN6" s="31"/>
+      <c r="DO6" s="31"/>
       <c r="DP6" s="30"/>
       <c r="DQ6" s="30"/>
       <c r="DR6" s="30"/>
       <c r="DS6" s="30"/>
-      <c r="DT6" s="29"/>
-      <c r="DU6" s="29"/>
-      <c r="DV6" s="29"/>
-      <c r="DW6" s="29"/>
-      <c r="DX6" s="29"/>
-      <c r="DY6" s="29"/>
-      <c r="DZ6" s="29"/>
-      <c r="EA6" s="33"/>
-      <c r="EB6" s="33"/>
-      <c r="EC6" s="33"/>
-      <c r="ED6" s="32"/>
-      <c r="EE6" s="32"/>
-      <c r="EF6" s="32"/>
+      <c r="DT6" s="31"/>
+      <c r="DU6" s="31"/>
+      <c r="DV6" s="31"/>
+      <c r="DW6" s="31"/>
+      <c r="DX6" s="31"/>
+      <c r="DY6" s="31"/>
+      <c r="DZ6" s="31"/>
+      <c r="EA6" s="29"/>
+      <c r="EB6" s="29"/>
+      <c r="EC6" s="29"/>
+      <c r="ED6" s="28"/>
+      <c r="EE6" s="28"/>
+      <c r="EF6" s="28"/>
     </row>
     <row r="7" spans="1:136" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -7681,19 +7681,19 @@
       <c r="DS7" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="DT7" s="29"/>
-      <c r="DU7" s="29"/>
-      <c r="DV7" s="29"/>
-      <c r="DW7" s="29"/>
-      <c r="DX7" s="29"/>
-      <c r="DY7" s="29"/>
-      <c r="DZ7" s="29"/>
-      <c r="EA7" s="33"/>
-      <c r="EB7" s="33"/>
-      <c r="EC7" s="33"/>
-      <c r="ED7" s="32"/>
-      <c r="EE7" s="32"/>
-      <c r="EF7" s="32"/>
+      <c r="DT7" s="31"/>
+      <c r="DU7" s="31"/>
+      <c r="DV7" s="31"/>
+      <c r="DW7" s="31"/>
+      <c r="DX7" s="31"/>
+      <c r="DY7" s="31"/>
+      <c r="DZ7" s="31"/>
+      <c r="EA7" s="29"/>
+      <c r="EB7" s="29"/>
+      <c r="EC7" s="29"/>
+      <c r="ED7" s="28"/>
+      <c r="EE7" s="28"/>
+      <c r="EF7" s="28"/>
     </row>
     <row r="8" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -46223,6 +46223,104 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A7:EF157" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="122">
+    <mergeCell ref="DW5:DW7"/>
+    <mergeCell ref="DX5:DX7"/>
+    <mergeCell ref="DY5:DY7"/>
+    <mergeCell ref="DZ5:DZ7"/>
+    <mergeCell ref="DP5:DP6"/>
+    <mergeCell ref="DQ5:DS6"/>
+    <mergeCell ref="DT5:DT7"/>
+    <mergeCell ref="DU5:DU7"/>
+    <mergeCell ref="DV5:DV7"/>
+    <mergeCell ref="DJ5:DK6"/>
+    <mergeCell ref="DL5:DL7"/>
+    <mergeCell ref="DM5:DM7"/>
+    <mergeCell ref="DN5:DO6"/>
+    <mergeCell ref="BW4:CJ4"/>
+    <mergeCell ref="CK4:CX4"/>
+    <mergeCell ref="CY4:DL4"/>
+    <mergeCell ref="DD5:DD7"/>
+    <mergeCell ref="DE5:DE7"/>
+    <mergeCell ref="DF5:DF7"/>
+    <mergeCell ref="DG5:DG7"/>
+    <mergeCell ref="DH5:DI6"/>
+    <mergeCell ref="CV5:CW6"/>
+    <mergeCell ref="CX5:CX7"/>
+    <mergeCell ref="CY5:CY7"/>
+    <mergeCell ref="CZ5:DA6"/>
+    <mergeCell ref="DB5:DC6"/>
+    <mergeCell ref="CP5:CP7"/>
+    <mergeCell ref="CQ5:CQ7"/>
+    <mergeCell ref="CR5:CR7"/>
+    <mergeCell ref="CS5:CS7"/>
+    <mergeCell ref="CT5:CU6"/>
+    <mergeCell ref="CH5:CI6"/>
+    <mergeCell ref="CJ5:CJ7"/>
+    <mergeCell ref="CK5:CK7"/>
+    <mergeCell ref="CL5:CM6"/>
+    <mergeCell ref="CN5:CO6"/>
+    <mergeCell ref="CB5:CB7"/>
+    <mergeCell ref="CC5:CC7"/>
+    <mergeCell ref="CD5:CD7"/>
+    <mergeCell ref="CE5:CE7"/>
+    <mergeCell ref="CF5:CG6"/>
+    <mergeCell ref="BU5:BU7"/>
+    <mergeCell ref="BV5:BV7"/>
+    <mergeCell ref="BW5:BW7"/>
+    <mergeCell ref="BX5:BY6"/>
+    <mergeCell ref="BZ5:CA6"/>
+    <mergeCell ref="BP5:BP7"/>
+    <mergeCell ref="BQ5:BQ7"/>
+    <mergeCell ref="BR5:BR7"/>
+    <mergeCell ref="BS5:BS7"/>
+    <mergeCell ref="BT5:BT7"/>
+    <mergeCell ref="BK5:BK7"/>
+    <mergeCell ref="BL5:BL7"/>
+    <mergeCell ref="BM5:BM7"/>
+    <mergeCell ref="BN5:BN7"/>
+    <mergeCell ref="BO5:BO7"/>
+    <mergeCell ref="BD5:BE6"/>
+    <mergeCell ref="BF5:BG6"/>
+    <mergeCell ref="BH5:BH7"/>
+    <mergeCell ref="BI5:BI7"/>
+    <mergeCell ref="BJ5:BJ7"/>
+    <mergeCell ref="AY5:AY7"/>
+    <mergeCell ref="AZ5:AZ7"/>
+    <mergeCell ref="BA5:BA7"/>
+    <mergeCell ref="BB5:BB7"/>
+    <mergeCell ref="BC5:BC7"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AW5:AW7"/>
+    <mergeCell ref="AX5:AX7"/>
+    <mergeCell ref="AO5:AO7"/>
+    <mergeCell ref="AP5:AP7"/>
+    <mergeCell ref="AQ5:AQ7"/>
+    <mergeCell ref="AR5:AR7"/>
+    <mergeCell ref="AS5:AS7"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AM5:AM7"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AG5:AG7"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI7"/>
+    <mergeCell ref="AT5:AT7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:O7"/>
     <mergeCell ref="EF5:EF7"/>
     <mergeCell ref="EA5:EA7"/>
     <mergeCell ref="EB5:EB7"/>
@@ -46247,104 +46345,6 @@
     <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="AJ5:AJ7"/>
     <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AM5:AM7"/>
-    <mergeCell ref="AN5:AN7"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AG5:AG7"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AT5:AT7"/>
-    <mergeCell ref="AU5:AU7"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AW5:AW7"/>
-    <mergeCell ref="AX5:AX7"/>
-    <mergeCell ref="AO5:AO7"/>
-    <mergeCell ref="AP5:AP7"/>
-    <mergeCell ref="AQ5:AQ7"/>
-    <mergeCell ref="AR5:AR7"/>
-    <mergeCell ref="AS5:AS7"/>
-    <mergeCell ref="BD5:BE6"/>
-    <mergeCell ref="BF5:BG6"/>
-    <mergeCell ref="BH5:BH7"/>
-    <mergeCell ref="BI5:BI7"/>
-    <mergeCell ref="BJ5:BJ7"/>
-    <mergeCell ref="AY5:AY7"/>
-    <mergeCell ref="AZ5:AZ7"/>
-    <mergeCell ref="BA5:BA7"/>
-    <mergeCell ref="BB5:BB7"/>
-    <mergeCell ref="BC5:BC7"/>
-    <mergeCell ref="BP5:BP7"/>
-    <mergeCell ref="BQ5:BQ7"/>
-    <mergeCell ref="BR5:BR7"/>
-    <mergeCell ref="BS5:BS7"/>
-    <mergeCell ref="BT5:BT7"/>
-    <mergeCell ref="BK5:BK7"/>
-    <mergeCell ref="BL5:BL7"/>
-    <mergeCell ref="BM5:BM7"/>
-    <mergeCell ref="BN5:BN7"/>
-    <mergeCell ref="BO5:BO7"/>
-    <mergeCell ref="CK5:CK7"/>
-    <mergeCell ref="CL5:CM6"/>
-    <mergeCell ref="CN5:CO6"/>
-    <mergeCell ref="CB5:CB7"/>
-    <mergeCell ref="CC5:CC7"/>
-    <mergeCell ref="CD5:CD7"/>
-    <mergeCell ref="CE5:CE7"/>
-    <mergeCell ref="CF5:CG6"/>
-    <mergeCell ref="BU5:BU7"/>
-    <mergeCell ref="BV5:BV7"/>
-    <mergeCell ref="BW5:BW7"/>
-    <mergeCell ref="BX5:BY6"/>
-    <mergeCell ref="BZ5:CA6"/>
-    <mergeCell ref="DJ5:DK6"/>
-    <mergeCell ref="DL5:DL7"/>
-    <mergeCell ref="DM5:DM7"/>
-    <mergeCell ref="DN5:DO6"/>
-    <mergeCell ref="BW4:CJ4"/>
-    <mergeCell ref="CK4:CX4"/>
-    <mergeCell ref="CY4:DL4"/>
-    <mergeCell ref="DD5:DD7"/>
-    <mergeCell ref="DE5:DE7"/>
-    <mergeCell ref="DF5:DF7"/>
-    <mergeCell ref="DG5:DG7"/>
-    <mergeCell ref="DH5:DI6"/>
-    <mergeCell ref="CV5:CW6"/>
-    <mergeCell ref="CX5:CX7"/>
-    <mergeCell ref="CY5:CY7"/>
-    <mergeCell ref="CZ5:DA6"/>
-    <mergeCell ref="DB5:DC6"/>
-    <mergeCell ref="CP5:CP7"/>
-    <mergeCell ref="CQ5:CQ7"/>
-    <mergeCell ref="CR5:CR7"/>
-    <mergeCell ref="CS5:CS7"/>
-    <mergeCell ref="CT5:CU6"/>
-    <mergeCell ref="CH5:CI6"/>
-    <mergeCell ref="CJ5:CJ7"/>
-    <mergeCell ref="DW5:DW7"/>
-    <mergeCell ref="DX5:DX7"/>
-    <mergeCell ref="DY5:DY7"/>
-    <mergeCell ref="DZ5:DZ7"/>
-    <mergeCell ref="DP5:DP6"/>
-    <mergeCell ref="DQ5:DS6"/>
-    <mergeCell ref="DT5:DT7"/>
-    <mergeCell ref="DU5:DU7"/>
-    <mergeCell ref="DV5:DV7"/>
   </mergeCells>
   <conditionalFormatting sqref="DN8:DN157">
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
